--- a/FingertipsUploadService/FingertipsUploadServiceTest/TestFiles/batch-indicator-upload-duplicate-rows.xlsx
+++ b/FingertipsUploadService/FingertipsUploadServiceTest/TestFiles/batch-indicator-upload-duplicate-rows.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farrukh.ayub\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11832" tabRatio="624" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" tabRatio="624" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="10" r:id="rId1"/>
@@ -26,7 +21,7 @@
     <author>Farrukh Ayub</author>
   </authors>
   <commentList>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="1" shapeId="0">
+    <comment ref="P1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -74,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="1" shapeId="0">
+    <comment ref="Q1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -442,7 +437,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -477,7 +472,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -695,16 +690,16 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.109375" style="1" customWidth="1"/>
-    <col min="2" max="6" width="9.109375" style="1"/>
-    <col min="7" max="7" width="35.44140625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="9.109375" style="1"/>
-    <col min="10" max="10" width="2.6640625" style="1" customWidth="1"/>
-    <col min="11" max="14" width="9.109375" style="1"/>
-    <col min="15" max="16" width="5.6640625" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="20.140625" style="1" customWidth="1"/>
+    <col min="2" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="35.42578125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="2.7109375" style="1" customWidth="1"/>
+    <col min="11" max="14" width="9.140625" style="1"/>
+    <col min="15" max="16" width="5.7109375" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16384" ht="18" x14ac:dyDescent="0.35">
@@ -712,7 +707,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>18</v>
       </c>
@@ -732,7 +727,7 @@
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
     </row>
-    <row r="3" spans="1:16384" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16384" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -17186,7 +17181,7 @@
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16384" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -17274,7 +17269,7 @@
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
@@ -17296,7 +17291,7 @@
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>3</v>
       </c>
@@ -17318,7 +17313,7 @@
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>4</v>
       </c>
@@ -17384,7 +17379,7 @@
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -17406,6 +17401,1008 @@
     </row>
   </sheetData>
   <mergeCells count="1034">
+    <mergeCell ref="FV11:GJ11"/>
+    <mergeCell ref="GL11:GZ11"/>
+    <mergeCell ref="HB11:HP11"/>
+    <mergeCell ref="HR11:IF11"/>
+    <mergeCell ref="IH11:IV11"/>
+    <mergeCell ref="DZ11:EN11"/>
+    <mergeCell ref="EP11:FD11"/>
+    <mergeCell ref="FF11:FT11"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="B12:P12"/>
+    <mergeCell ref="B11:P11"/>
+    <mergeCell ref="B6:P6"/>
+    <mergeCell ref="A2:P3"/>
+    <mergeCell ref="B19:P19"/>
+    <mergeCell ref="B20:P20"/>
+    <mergeCell ref="B10:P10"/>
+    <mergeCell ref="B13:P13"/>
+    <mergeCell ref="B14:P14"/>
+    <mergeCell ref="B16:P16"/>
+    <mergeCell ref="B17:P17"/>
+    <mergeCell ref="B18:P18"/>
+    <mergeCell ref="B8:P8"/>
+    <mergeCell ref="B9:P9"/>
+    <mergeCell ref="SD11:SR11"/>
+    <mergeCell ref="ST11:TH11"/>
+    <mergeCell ref="TJ11:TX11"/>
+    <mergeCell ref="TZ11:UN11"/>
+    <mergeCell ref="UP11:VD11"/>
+    <mergeCell ref="PB11:PP11"/>
+    <mergeCell ref="PR11:QF11"/>
+    <mergeCell ref="QH11:QV11"/>
+    <mergeCell ref="QX11:RL11"/>
+    <mergeCell ref="RN11:SB11"/>
+    <mergeCell ref="LZ11:MN11"/>
+    <mergeCell ref="MP11:ND11"/>
+    <mergeCell ref="NF11:NT11"/>
+    <mergeCell ref="NV11:OJ11"/>
+    <mergeCell ref="OL11:OZ11"/>
+    <mergeCell ref="IX11:JL11"/>
+    <mergeCell ref="JN11:KB11"/>
+    <mergeCell ref="KD11:KR11"/>
+    <mergeCell ref="KT11:LH11"/>
+    <mergeCell ref="LJ11:LX11"/>
+    <mergeCell ref="AEL11:AEZ11"/>
+    <mergeCell ref="AFB11:AFP11"/>
+    <mergeCell ref="AFR11:AGF11"/>
+    <mergeCell ref="AGH11:AGV11"/>
+    <mergeCell ref="AGX11:AHL11"/>
+    <mergeCell ref="ABJ11:ABX11"/>
+    <mergeCell ref="ABZ11:ACN11"/>
+    <mergeCell ref="ACP11:ADD11"/>
+    <mergeCell ref="ADF11:ADT11"/>
+    <mergeCell ref="ADV11:AEJ11"/>
+    <mergeCell ref="YH11:YV11"/>
+    <mergeCell ref="YX11:ZL11"/>
+    <mergeCell ref="ZN11:AAB11"/>
+    <mergeCell ref="AAD11:AAR11"/>
+    <mergeCell ref="AAT11:ABH11"/>
+    <mergeCell ref="VF11:VT11"/>
+    <mergeCell ref="VV11:WJ11"/>
+    <mergeCell ref="WL11:WZ11"/>
+    <mergeCell ref="XB11:XP11"/>
+    <mergeCell ref="XR11:YF11"/>
+    <mergeCell ref="AQT11:ARH11"/>
+    <mergeCell ref="ARJ11:ARX11"/>
+    <mergeCell ref="ARZ11:ASN11"/>
+    <mergeCell ref="ASP11:ATD11"/>
+    <mergeCell ref="ATF11:ATT11"/>
+    <mergeCell ref="ANR11:AOF11"/>
+    <mergeCell ref="AOH11:AOV11"/>
+    <mergeCell ref="AOX11:APL11"/>
+    <mergeCell ref="APN11:AQB11"/>
+    <mergeCell ref="AQD11:AQR11"/>
+    <mergeCell ref="AKP11:ALD11"/>
+    <mergeCell ref="ALF11:ALT11"/>
+    <mergeCell ref="ALV11:AMJ11"/>
+    <mergeCell ref="AML11:AMZ11"/>
+    <mergeCell ref="ANB11:ANP11"/>
+    <mergeCell ref="AHN11:AIB11"/>
+    <mergeCell ref="AID11:AIR11"/>
+    <mergeCell ref="AIT11:AJH11"/>
+    <mergeCell ref="AJJ11:AJX11"/>
+    <mergeCell ref="AJZ11:AKN11"/>
+    <mergeCell ref="BDB11:BDP11"/>
+    <mergeCell ref="BDR11:BEF11"/>
+    <mergeCell ref="BEH11:BEV11"/>
+    <mergeCell ref="BEX11:BFL11"/>
+    <mergeCell ref="BFN11:BGB11"/>
+    <mergeCell ref="AZZ11:BAN11"/>
+    <mergeCell ref="BAP11:BBD11"/>
+    <mergeCell ref="BBF11:BBT11"/>
+    <mergeCell ref="BBV11:BCJ11"/>
+    <mergeCell ref="BCL11:BCZ11"/>
+    <mergeCell ref="AWX11:AXL11"/>
+    <mergeCell ref="AXN11:AYB11"/>
+    <mergeCell ref="AYD11:AYR11"/>
+    <mergeCell ref="AYT11:AZH11"/>
+    <mergeCell ref="AZJ11:AZX11"/>
+    <mergeCell ref="ATV11:AUJ11"/>
+    <mergeCell ref="AUL11:AUZ11"/>
+    <mergeCell ref="AVB11:AVP11"/>
+    <mergeCell ref="AVR11:AWF11"/>
+    <mergeCell ref="AWH11:AWV11"/>
+    <mergeCell ref="BPJ11:BPX11"/>
+    <mergeCell ref="BPZ11:BQN11"/>
+    <mergeCell ref="BQP11:BRD11"/>
+    <mergeCell ref="BRF11:BRT11"/>
+    <mergeCell ref="BRV11:BSJ11"/>
+    <mergeCell ref="BMH11:BMV11"/>
+    <mergeCell ref="BMX11:BNL11"/>
+    <mergeCell ref="BNN11:BOB11"/>
+    <mergeCell ref="BOD11:BOR11"/>
+    <mergeCell ref="BOT11:BPH11"/>
+    <mergeCell ref="BJF11:BJT11"/>
+    <mergeCell ref="BJV11:BKJ11"/>
+    <mergeCell ref="BKL11:BKZ11"/>
+    <mergeCell ref="BLB11:BLP11"/>
+    <mergeCell ref="BLR11:BMF11"/>
+    <mergeCell ref="BGD11:BGR11"/>
+    <mergeCell ref="BGT11:BHH11"/>
+    <mergeCell ref="BHJ11:BHX11"/>
+    <mergeCell ref="BHZ11:BIN11"/>
+    <mergeCell ref="BIP11:BJD11"/>
+    <mergeCell ref="CBR11:CCF11"/>
+    <mergeCell ref="CCH11:CCV11"/>
+    <mergeCell ref="CCX11:CDL11"/>
+    <mergeCell ref="CDN11:CEB11"/>
+    <mergeCell ref="CED11:CER11"/>
+    <mergeCell ref="BYP11:BZD11"/>
+    <mergeCell ref="BZF11:BZT11"/>
+    <mergeCell ref="BZV11:CAJ11"/>
+    <mergeCell ref="CAL11:CAZ11"/>
+    <mergeCell ref="CBB11:CBP11"/>
+    <mergeCell ref="BVN11:BWB11"/>
+    <mergeCell ref="BWD11:BWR11"/>
+    <mergeCell ref="BWT11:BXH11"/>
+    <mergeCell ref="BXJ11:BXX11"/>
+    <mergeCell ref="BXZ11:BYN11"/>
+    <mergeCell ref="BSL11:BSZ11"/>
+    <mergeCell ref="BTB11:BTP11"/>
+    <mergeCell ref="BTR11:BUF11"/>
+    <mergeCell ref="BUH11:BUV11"/>
+    <mergeCell ref="BUX11:BVL11"/>
+    <mergeCell ref="CNZ11:CON11"/>
+    <mergeCell ref="COP11:CPD11"/>
+    <mergeCell ref="CPF11:CPT11"/>
+    <mergeCell ref="CPV11:CQJ11"/>
+    <mergeCell ref="CQL11:CQZ11"/>
+    <mergeCell ref="CKX11:CLL11"/>
+    <mergeCell ref="CLN11:CMB11"/>
+    <mergeCell ref="CMD11:CMR11"/>
+    <mergeCell ref="CMT11:CNH11"/>
+    <mergeCell ref="CNJ11:CNX11"/>
+    <mergeCell ref="CHV11:CIJ11"/>
+    <mergeCell ref="CIL11:CIZ11"/>
+    <mergeCell ref="CJB11:CJP11"/>
+    <mergeCell ref="CJR11:CKF11"/>
+    <mergeCell ref="CKH11:CKV11"/>
+    <mergeCell ref="CET11:CFH11"/>
+    <mergeCell ref="CFJ11:CFX11"/>
+    <mergeCell ref="CFZ11:CGN11"/>
+    <mergeCell ref="CGP11:CHD11"/>
+    <mergeCell ref="CHF11:CHT11"/>
+    <mergeCell ref="DAH11:DAV11"/>
+    <mergeCell ref="DAX11:DBL11"/>
+    <mergeCell ref="DBN11:DCB11"/>
+    <mergeCell ref="DCD11:DCR11"/>
+    <mergeCell ref="DCT11:DDH11"/>
+    <mergeCell ref="CXF11:CXT11"/>
+    <mergeCell ref="CXV11:CYJ11"/>
+    <mergeCell ref="CYL11:CYZ11"/>
+    <mergeCell ref="CZB11:CZP11"/>
+    <mergeCell ref="CZR11:DAF11"/>
+    <mergeCell ref="CUD11:CUR11"/>
+    <mergeCell ref="CUT11:CVH11"/>
+    <mergeCell ref="CVJ11:CVX11"/>
+    <mergeCell ref="CVZ11:CWN11"/>
+    <mergeCell ref="CWP11:CXD11"/>
+    <mergeCell ref="CRB11:CRP11"/>
+    <mergeCell ref="CRR11:CSF11"/>
+    <mergeCell ref="CSH11:CSV11"/>
+    <mergeCell ref="CSX11:CTL11"/>
+    <mergeCell ref="CTN11:CUB11"/>
+    <mergeCell ref="DMP11:DND11"/>
+    <mergeCell ref="DNF11:DNT11"/>
+    <mergeCell ref="DNV11:DOJ11"/>
+    <mergeCell ref="DOL11:DOZ11"/>
+    <mergeCell ref="DPB11:DPP11"/>
+    <mergeCell ref="DJN11:DKB11"/>
+    <mergeCell ref="DKD11:DKR11"/>
+    <mergeCell ref="DKT11:DLH11"/>
+    <mergeCell ref="DLJ11:DLX11"/>
+    <mergeCell ref="DLZ11:DMN11"/>
+    <mergeCell ref="DGL11:DGZ11"/>
+    <mergeCell ref="DHB11:DHP11"/>
+    <mergeCell ref="DHR11:DIF11"/>
+    <mergeCell ref="DIH11:DIV11"/>
+    <mergeCell ref="DIX11:DJL11"/>
+    <mergeCell ref="DDJ11:DDX11"/>
+    <mergeCell ref="DDZ11:DEN11"/>
+    <mergeCell ref="DEP11:DFD11"/>
+    <mergeCell ref="DFF11:DFT11"/>
+    <mergeCell ref="DFV11:DGJ11"/>
+    <mergeCell ref="DYX11:DZL11"/>
+    <mergeCell ref="DZN11:EAB11"/>
+    <mergeCell ref="EAD11:EAR11"/>
+    <mergeCell ref="EAT11:EBH11"/>
+    <mergeCell ref="EBJ11:EBX11"/>
+    <mergeCell ref="DVV11:DWJ11"/>
+    <mergeCell ref="DWL11:DWZ11"/>
+    <mergeCell ref="DXB11:DXP11"/>
+    <mergeCell ref="DXR11:DYF11"/>
+    <mergeCell ref="DYH11:DYV11"/>
+    <mergeCell ref="DST11:DTH11"/>
+    <mergeCell ref="DTJ11:DTX11"/>
+    <mergeCell ref="DTZ11:DUN11"/>
+    <mergeCell ref="DUP11:DVD11"/>
+    <mergeCell ref="DVF11:DVT11"/>
+    <mergeCell ref="DPR11:DQF11"/>
+    <mergeCell ref="DQH11:DQV11"/>
+    <mergeCell ref="DQX11:DRL11"/>
+    <mergeCell ref="DRN11:DSB11"/>
+    <mergeCell ref="DSD11:DSR11"/>
+    <mergeCell ref="ELF11:ELT11"/>
+    <mergeCell ref="ELV11:EMJ11"/>
+    <mergeCell ref="EML11:EMZ11"/>
+    <mergeCell ref="ENB11:ENP11"/>
+    <mergeCell ref="ENR11:EOF11"/>
+    <mergeCell ref="EID11:EIR11"/>
+    <mergeCell ref="EIT11:EJH11"/>
+    <mergeCell ref="EJJ11:EJX11"/>
+    <mergeCell ref="EJZ11:EKN11"/>
+    <mergeCell ref="EKP11:ELD11"/>
+    <mergeCell ref="EFB11:EFP11"/>
+    <mergeCell ref="EFR11:EGF11"/>
+    <mergeCell ref="EGH11:EGV11"/>
+    <mergeCell ref="EGX11:EHL11"/>
+    <mergeCell ref="EHN11:EIB11"/>
+    <mergeCell ref="EBZ11:ECN11"/>
+    <mergeCell ref="ECP11:EDD11"/>
+    <mergeCell ref="EDF11:EDT11"/>
+    <mergeCell ref="EDV11:EEJ11"/>
+    <mergeCell ref="EEL11:EEZ11"/>
+    <mergeCell ref="EXN11:EYB11"/>
+    <mergeCell ref="EYD11:EYR11"/>
+    <mergeCell ref="EYT11:EZH11"/>
+    <mergeCell ref="EZJ11:EZX11"/>
+    <mergeCell ref="EZZ11:FAN11"/>
+    <mergeCell ref="EUL11:EUZ11"/>
+    <mergeCell ref="EVB11:EVP11"/>
+    <mergeCell ref="EVR11:EWF11"/>
+    <mergeCell ref="EWH11:EWV11"/>
+    <mergeCell ref="EWX11:EXL11"/>
+    <mergeCell ref="ERJ11:ERX11"/>
+    <mergeCell ref="ERZ11:ESN11"/>
+    <mergeCell ref="ESP11:ETD11"/>
+    <mergeCell ref="ETF11:ETT11"/>
+    <mergeCell ref="ETV11:EUJ11"/>
+    <mergeCell ref="EOH11:EOV11"/>
+    <mergeCell ref="EOX11:EPL11"/>
+    <mergeCell ref="EPN11:EQB11"/>
+    <mergeCell ref="EQD11:EQR11"/>
+    <mergeCell ref="EQT11:ERH11"/>
+    <mergeCell ref="FJV11:FKJ11"/>
+    <mergeCell ref="FKL11:FKZ11"/>
+    <mergeCell ref="FLB11:FLP11"/>
+    <mergeCell ref="FLR11:FMF11"/>
+    <mergeCell ref="FMH11:FMV11"/>
+    <mergeCell ref="FGT11:FHH11"/>
+    <mergeCell ref="FHJ11:FHX11"/>
+    <mergeCell ref="FHZ11:FIN11"/>
+    <mergeCell ref="FIP11:FJD11"/>
+    <mergeCell ref="FJF11:FJT11"/>
+    <mergeCell ref="FDR11:FEF11"/>
+    <mergeCell ref="FEH11:FEV11"/>
+    <mergeCell ref="FEX11:FFL11"/>
+    <mergeCell ref="FFN11:FGB11"/>
+    <mergeCell ref="FGD11:FGR11"/>
+    <mergeCell ref="FAP11:FBD11"/>
+    <mergeCell ref="FBF11:FBT11"/>
+    <mergeCell ref="FBV11:FCJ11"/>
+    <mergeCell ref="FCL11:FCZ11"/>
+    <mergeCell ref="FDB11:FDP11"/>
+    <mergeCell ref="FWD11:FWR11"/>
+    <mergeCell ref="FWT11:FXH11"/>
+    <mergeCell ref="FXJ11:FXX11"/>
+    <mergeCell ref="FXZ11:FYN11"/>
+    <mergeCell ref="FYP11:FZD11"/>
+    <mergeCell ref="FTB11:FTP11"/>
+    <mergeCell ref="FTR11:FUF11"/>
+    <mergeCell ref="FUH11:FUV11"/>
+    <mergeCell ref="FUX11:FVL11"/>
+    <mergeCell ref="FVN11:FWB11"/>
+    <mergeCell ref="FPZ11:FQN11"/>
+    <mergeCell ref="FQP11:FRD11"/>
+    <mergeCell ref="FRF11:FRT11"/>
+    <mergeCell ref="FRV11:FSJ11"/>
+    <mergeCell ref="FSL11:FSZ11"/>
+    <mergeCell ref="FMX11:FNL11"/>
+    <mergeCell ref="FNN11:FOB11"/>
+    <mergeCell ref="FOD11:FOR11"/>
+    <mergeCell ref="FOT11:FPH11"/>
+    <mergeCell ref="FPJ11:FPX11"/>
+    <mergeCell ref="GIL11:GIZ11"/>
+    <mergeCell ref="GJB11:GJP11"/>
+    <mergeCell ref="GJR11:GKF11"/>
+    <mergeCell ref="GKH11:GKV11"/>
+    <mergeCell ref="GKX11:GLL11"/>
+    <mergeCell ref="GFJ11:GFX11"/>
+    <mergeCell ref="GFZ11:GGN11"/>
+    <mergeCell ref="GGP11:GHD11"/>
+    <mergeCell ref="GHF11:GHT11"/>
+    <mergeCell ref="GHV11:GIJ11"/>
+    <mergeCell ref="GCH11:GCV11"/>
+    <mergeCell ref="GCX11:GDL11"/>
+    <mergeCell ref="GDN11:GEB11"/>
+    <mergeCell ref="GED11:GER11"/>
+    <mergeCell ref="GET11:GFH11"/>
+    <mergeCell ref="FZF11:FZT11"/>
+    <mergeCell ref="FZV11:GAJ11"/>
+    <mergeCell ref="GAL11:GAZ11"/>
+    <mergeCell ref="GBB11:GBP11"/>
+    <mergeCell ref="GBR11:GCF11"/>
+    <mergeCell ref="GUT11:GVH11"/>
+    <mergeCell ref="GVJ11:GVX11"/>
+    <mergeCell ref="GVZ11:GWN11"/>
+    <mergeCell ref="GWP11:GXD11"/>
+    <mergeCell ref="GXF11:GXT11"/>
+    <mergeCell ref="GRR11:GSF11"/>
+    <mergeCell ref="GSH11:GSV11"/>
+    <mergeCell ref="GSX11:GTL11"/>
+    <mergeCell ref="GTN11:GUB11"/>
+    <mergeCell ref="GUD11:GUR11"/>
+    <mergeCell ref="GOP11:GPD11"/>
+    <mergeCell ref="GPF11:GPT11"/>
+    <mergeCell ref="GPV11:GQJ11"/>
+    <mergeCell ref="GQL11:GQZ11"/>
+    <mergeCell ref="GRB11:GRP11"/>
+    <mergeCell ref="GLN11:GMB11"/>
+    <mergeCell ref="GMD11:GMR11"/>
+    <mergeCell ref="GMT11:GNH11"/>
+    <mergeCell ref="GNJ11:GNX11"/>
+    <mergeCell ref="GNZ11:GON11"/>
+    <mergeCell ref="HHB11:HHP11"/>
+    <mergeCell ref="HHR11:HIF11"/>
+    <mergeCell ref="HIH11:HIV11"/>
+    <mergeCell ref="HIX11:HJL11"/>
+    <mergeCell ref="HJN11:HKB11"/>
+    <mergeCell ref="HDZ11:HEN11"/>
+    <mergeCell ref="HEP11:HFD11"/>
+    <mergeCell ref="HFF11:HFT11"/>
+    <mergeCell ref="HFV11:HGJ11"/>
+    <mergeCell ref="HGL11:HGZ11"/>
+    <mergeCell ref="HAX11:HBL11"/>
+    <mergeCell ref="HBN11:HCB11"/>
+    <mergeCell ref="HCD11:HCR11"/>
+    <mergeCell ref="HCT11:HDH11"/>
+    <mergeCell ref="HDJ11:HDX11"/>
+    <mergeCell ref="GXV11:GYJ11"/>
+    <mergeCell ref="GYL11:GYZ11"/>
+    <mergeCell ref="GZB11:GZP11"/>
+    <mergeCell ref="GZR11:HAF11"/>
+    <mergeCell ref="HAH11:HAV11"/>
+    <mergeCell ref="HTJ11:HTX11"/>
+    <mergeCell ref="HTZ11:HUN11"/>
+    <mergeCell ref="HUP11:HVD11"/>
+    <mergeCell ref="HVF11:HVT11"/>
+    <mergeCell ref="HVV11:HWJ11"/>
+    <mergeCell ref="HQH11:HQV11"/>
+    <mergeCell ref="HQX11:HRL11"/>
+    <mergeCell ref="HRN11:HSB11"/>
+    <mergeCell ref="HSD11:HSR11"/>
+    <mergeCell ref="HST11:HTH11"/>
+    <mergeCell ref="HNF11:HNT11"/>
+    <mergeCell ref="HNV11:HOJ11"/>
+    <mergeCell ref="HOL11:HOZ11"/>
+    <mergeCell ref="HPB11:HPP11"/>
+    <mergeCell ref="HPR11:HQF11"/>
+    <mergeCell ref="HKD11:HKR11"/>
+    <mergeCell ref="HKT11:HLH11"/>
+    <mergeCell ref="HLJ11:HLX11"/>
+    <mergeCell ref="HLZ11:HMN11"/>
+    <mergeCell ref="HMP11:HND11"/>
+    <mergeCell ref="IFR11:IGF11"/>
+    <mergeCell ref="IGH11:IGV11"/>
+    <mergeCell ref="IGX11:IHL11"/>
+    <mergeCell ref="IHN11:IIB11"/>
+    <mergeCell ref="IID11:IIR11"/>
+    <mergeCell ref="ICP11:IDD11"/>
+    <mergeCell ref="IDF11:IDT11"/>
+    <mergeCell ref="IDV11:IEJ11"/>
+    <mergeCell ref="IEL11:IEZ11"/>
+    <mergeCell ref="IFB11:IFP11"/>
+    <mergeCell ref="HZN11:IAB11"/>
+    <mergeCell ref="IAD11:IAR11"/>
+    <mergeCell ref="IAT11:IBH11"/>
+    <mergeCell ref="IBJ11:IBX11"/>
+    <mergeCell ref="IBZ11:ICN11"/>
+    <mergeCell ref="HWL11:HWZ11"/>
+    <mergeCell ref="HXB11:HXP11"/>
+    <mergeCell ref="HXR11:HYF11"/>
+    <mergeCell ref="HYH11:HYV11"/>
+    <mergeCell ref="HYX11:HZL11"/>
+    <mergeCell ref="IRZ11:ISN11"/>
+    <mergeCell ref="ISP11:ITD11"/>
+    <mergeCell ref="ITF11:ITT11"/>
+    <mergeCell ref="ITV11:IUJ11"/>
+    <mergeCell ref="IUL11:IUZ11"/>
+    <mergeCell ref="IOX11:IPL11"/>
+    <mergeCell ref="IPN11:IQB11"/>
+    <mergeCell ref="IQD11:IQR11"/>
+    <mergeCell ref="IQT11:IRH11"/>
+    <mergeCell ref="IRJ11:IRX11"/>
+    <mergeCell ref="ILV11:IMJ11"/>
+    <mergeCell ref="IML11:IMZ11"/>
+    <mergeCell ref="INB11:INP11"/>
+    <mergeCell ref="INR11:IOF11"/>
+    <mergeCell ref="IOH11:IOV11"/>
+    <mergeCell ref="IIT11:IJH11"/>
+    <mergeCell ref="IJJ11:IJX11"/>
+    <mergeCell ref="IJZ11:IKN11"/>
+    <mergeCell ref="IKP11:ILD11"/>
+    <mergeCell ref="ILF11:ILT11"/>
+    <mergeCell ref="JEH11:JEV11"/>
+    <mergeCell ref="JEX11:JFL11"/>
+    <mergeCell ref="JFN11:JGB11"/>
+    <mergeCell ref="JGD11:JGR11"/>
+    <mergeCell ref="JGT11:JHH11"/>
+    <mergeCell ref="JBF11:JBT11"/>
+    <mergeCell ref="JBV11:JCJ11"/>
+    <mergeCell ref="JCL11:JCZ11"/>
+    <mergeCell ref="JDB11:JDP11"/>
+    <mergeCell ref="JDR11:JEF11"/>
+    <mergeCell ref="IYD11:IYR11"/>
+    <mergeCell ref="IYT11:IZH11"/>
+    <mergeCell ref="IZJ11:IZX11"/>
+    <mergeCell ref="IZZ11:JAN11"/>
+    <mergeCell ref="JAP11:JBD11"/>
+    <mergeCell ref="IVB11:IVP11"/>
+    <mergeCell ref="IVR11:IWF11"/>
+    <mergeCell ref="IWH11:IWV11"/>
+    <mergeCell ref="IWX11:IXL11"/>
+    <mergeCell ref="IXN11:IYB11"/>
+    <mergeCell ref="JQP11:JRD11"/>
+    <mergeCell ref="JRF11:JRT11"/>
+    <mergeCell ref="JRV11:JSJ11"/>
+    <mergeCell ref="JSL11:JSZ11"/>
+    <mergeCell ref="JTB11:JTP11"/>
+    <mergeCell ref="JNN11:JOB11"/>
+    <mergeCell ref="JOD11:JOR11"/>
+    <mergeCell ref="JOT11:JPH11"/>
+    <mergeCell ref="JPJ11:JPX11"/>
+    <mergeCell ref="JPZ11:JQN11"/>
+    <mergeCell ref="JKL11:JKZ11"/>
+    <mergeCell ref="JLB11:JLP11"/>
+    <mergeCell ref="JLR11:JMF11"/>
+    <mergeCell ref="JMH11:JMV11"/>
+    <mergeCell ref="JMX11:JNL11"/>
+    <mergeCell ref="JHJ11:JHX11"/>
+    <mergeCell ref="JHZ11:JIN11"/>
+    <mergeCell ref="JIP11:JJD11"/>
+    <mergeCell ref="JJF11:JJT11"/>
+    <mergeCell ref="JJV11:JKJ11"/>
+    <mergeCell ref="KCX11:KDL11"/>
+    <mergeCell ref="KDN11:KEB11"/>
+    <mergeCell ref="KED11:KER11"/>
+    <mergeCell ref="KET11:KFH11"/>
+    <mergeCell ref="KFJ11:KFX11"/>
+    <mergeCell ref="JZV11:KAJ11"/>
+    <mergeCell ref="KAL11:KAZ11"/>
+    <mergeCell ref="KBB11:KBP11"/>
+    <mergeCell ref="KBR11:KCF11"/>
+    <mergeCell ref="KCH11:KCV11"/>
+    <mergeCell ref="JWT11:JXH11"/>
+    <mergeCell ref="JXJ11:JXX11"/>
+    <mergeCell ref="JXZ11:JYN11"/>
+    <mergeCell ref="JYP11:JZD11"/>
+    <mergeCell ref="JZF11:JZT11"/>
+    <mergeCell ref="JTR11:JUF11"/>
+    <mergeCell ref="JUH11:JUV11"/>
+    <mergeCell ref="JUX11:JVL11"/>
+    <mergeCell ref="JVN11:JWB11"/>
+    <mergeCell ref="JWD11:JWR11"/>
+    <mergeCell ref="KPF11:KPT11"/>
+    <mergeCell ref="KPV11:KQJ11"/>
+    <mergeCell ref="KQL11:KQZ11"/>
+    <mergeCell ref="KRB11:KRP11"/>
+    <mergeCell ref="KRR11:KSF11"/>
+    <mergeCell ref="KMD11:KMR11"/>
+    <mergeCell ref="KMT11:KNH11"/>
+    <mergeCell ref="KNJ11:KNX11"/>
+    <mergeCell ref="KNZ11:KON11"/>
+    <mergeCell ref="KOP11:KPD11"/>
+    <mergeCell ref="KJB11:KJP11"/>
+    <mergeCell ref="KJR11:KKF11"/>
+    <mergeCell ref="KKH11:KKV11"/>
+    <mergeCell ref="KKX11:KLL11"/>
+    <mergeCell ref="KLN11:KMB11"/>
+    <mergeCell ref="KFZ11:KGN11"/>
+    <mergeCell ref="KGP11:KHD11"/>
+    <mergeCell ref="KHF11:KHT11"/>
+    <mergeCell ref="KHV11:KIJ11"/>
+    <mergeCell ref="KIL11:KIZ11"/>
+    <mergeCell ref="LBN11:LCB11"/>
+    <mergeCell ref="LCD11:LCR11"/>
+    <mergeCell ref="LCT11:LDH11"/>
+    <mergeCell ref="LDJ11:LDX11"/>
+    <mergeCell ref="LDZ11:LEN11"/>
+    <mergeCell ref="KYL11:KYZ11"/>
+    <mergeCell ref="KZB11:KZP11"/>
+    <mergeCell ref="KZR11:LAF11"/>
+    <mergeCell ref="LAH11:LAV11"/>
+    <mergeCell ref="LAX11:LBL11"/>
+    <mergeCell ref="KVJ11:KVX11"/>
+    <mergeCell ref="KVZ11:KWN11"/>
+    <mergeCell ref="KWP11:KXD11"/>
+    <mergeCell ref="KXF11:KXT11"/>
+    <mergeCell ref="KXV11:KYJ11"/>
+    <mergeCell ref="KSH11:KSV11"/>
+    <mergeCell ref="KSX11:KTL11"/>
+    <mergeCell ref="KTN11:KUB11"/>
+    <mergeCell ref="KUD11:KUR11"/>
+    <mergeCell ref="KUT11:KVH11"/>
+    <mergeCell ref="LNV11:LOJ11"/>
+    <mergeCell ref="LOL11:LOZ11"/>
+    <mergeCell ref="LPB11:LPP11"/>
+    <mergeCell ref="LPR11:LQF11"/>
+    <mergeCell ref="LQH11:LQV11"/>
+    <mergeCell ref="LKT11:LLH11"/>
+    <mergeCell ref="LLJ11:LLX11"/>
+    <mergeCell ref="LLZ11:LMN11"/>
+    <mergeCell ref="LMP11:LND11"/>
+    <mergeCell ref="LNF11:LNT11"/>
+    <mergeCell ref="LHR11:LIF11"/>
+    <mergeCell ref="LIH11:LIV11"/>
+    <mergeCell ref="LIX11:LJL11"/>
+    <mergeCell ref="LJN11:LKB11"/>
+    <mergeCell ref="LKD11:LKR11"/>
+    <mergeCell ref="LEP11:LFD11"/>
+    <mergeCell ref="LFF11:LFT11"/>
+    <mergeCell ref="LFV11:LGJ11"/>
+    <mergeCell ref="LGL11:LGZ11"/>
+    <mergeCell ref="LHB11:LHP11"/>
+    <mergeCell ref="MAD11:MAR11"/>
+    <mergeCell ref="MAT11:MBH11"/>
+    <mergeCell ref="MBJ11:MBX11"/>
+    <mergeCell ref="MBZ11:MCN11"/>
+    <mergeCell ref="MCP11:MDD11"/>
+    <mergeCell ref="LXB11:LXP11"/>
+    <mergeCell ref="LXR11:LYF11"/>
+    <mergeCell ref="LYH11:LYV11"/>
+    <mergeCell ref="LYX11:LZL11"/>
+    <mergeCell ref="LZN11:MAB11"/>
+    <mergeCell ref="LTZ11:LUN11"/>
+    <mergeCell ref="LUP11:LVD11"/>
+    <mergeCell ref="LVF11:LVT11"/>
+    <mergeCell ref="LVV11:LWJ11"/>
+    <mergeCell ref="LWL11:LWZ11"/>
+    <mergeCell ref="LQX11:LRL11"/>
+    <mergeCell ref="LRN11:LSB11"/>
+    <mergeCell ref="LSD11:LSR11"/>
+    <mergeCell ref="LST11:LTH11"/>
+    <mergeCell ref="LTJ11:LTX11"/>
+    <mergeCell ref="MML11:MMZ11"/>
+    <mergeCell ref="MNB11:MNP11"/>
+    <mergeCell ref="MNR11:MOF11"/>
+    <mergeCell ref="MOH11:MOV11"/>
+    <mergeCell ref="MOX11:MPL11"/>
+    <mergeCell ref="MJJ11:MJX11"/>
+    <mergeCell ref="MJZ11:MKN11"/>
+    <mergeCell ref="MKP11:MLD11"/>
+    <mergeCell ref="MLF11:MLT11"/>
+    <mergeCell ref="MLV11:MMJ11"/>
+    <mergeCell ref="MGH11:MGV11"/>
+    <mergeCell ref="MGX11:MHL11"/>
+    <mergeCell ref="MHN11:MIB11"/>
+    <mergeCell ref="MID11:MIR11"/>
+    <mergeCell ref="MIT11:MJH11"/>
+    <mergeCell ref="MDF11:MDT11"/>
+    <mergeCell ref="MDV11:MEJ11"/>
+    <mergeCell ref="MEL11:MEZ11"/>
+    <mergeCell ref="MFB11:MFP11"/>
+    <mergeCell ref="MFR11:MGF11"/>
+    <mergeCell ref="MYT11:MZH11"/>
+    <mergeCell ref="MZJ11:MZX11"/>
+    <mergeCell ref="MZZ11:NAN11"/>
+    <mergeCell ref="NAP11:NBD11"/>
+    <mergeCell ref="NBF11:NBT11"/>
+    <mergeCell ref="MVR11:MWF11"/>
+    <mergeCell ref="MWH11:MWV11"/>
+    <mergeCell ref="MWX11:MXL11"/>
+    <mergeCell ref="MXN11:MYB11"/>
+    <mergeCell ref="MYD11:MYR11"/>
+    <mergeCell ref="MSP11:MTD11"/>
+    <mergeCell ref="MTF11:MTT11"/>
+    <mergeCell ref="MTV11:MUJ11"/>
+    <mergeCell ref="MUL11:MUZ11"/>
+    <mergeCell ref="MVB11:MVP11"/>
+    <mergeCell ref="MPN11:MQB11"/>
+    <mergeCell ref="MQD11:MQR11"/>
+    <mergeCell ref="MQT11:MRH11"/>
+    <mergeCell ref="MRJ11:MRX11"/>
+    <mergeCell ref="MRZ11:MSN11"/>
+    <mergeCell ref="NLB11:NLP11"/>
+    <mergeCell ref="NLR11:NMF11"/>
+    <mergeCell ref="NMH11:NMV11"/>
+    <mergeCell ref="NMX11:NNL11"/>
+    <mergeCell ref="NNN11:NOB11"/>
+    <mergeCell ref="NHZ11:NIN11"/>
+    <mergeCell ref="NIP11:NJD11"/>
+    <mergeCell ref="NJF11:NJT11"/>
+    <mergeCell ref="NJV11:NKJ11"/>
+    <mergeCell ref="NKL11:NKZ11"/>
+    <mergeCell ref="NEX11:NFL11"/>
+    <mergeCell ref="NFN11:NGB11"/>
+    <mergeCell ref="NGD11:NGR11"/>
+    <mergeCell ref="NGT11:NHH11"/>
+    <mergeCell ref="NHJ11:NHX11"/>
+    <mergeCell ref="NBV11:NCJ11"/>
+    <mergeCell ref="NCL11:NCZ11"/>
+    <mergeCell ref="NDB11:NDP11"/>
+    <mergeCell ref="NDR11:NEF11"/>
+    <mergeCell ref="NEH11:NEV11"/>
+    <mergeCell ref="NXJ11:NXX11"/>
+    <mergeCell ref="NXZ11:NYN11"/>
+    <mergeCell ref="NYP11:NZD11"/>
+    <mergeCell ref="NZF11:NZT11"/>
+    <mergeCell ref="NZV11:OAJ11"/>
+    <mergeCell ref="NUH11:NUV11"/>
+    <mergeCell ref="NUX11:NVL11"/>
+    <mergeCell ref="NVN11:NWB11"/>
+    <mergeCell ref="NWD11:NWR11"/>
+    <mergeCell ref="NWT11:NXH11"/>
+    <mergeCell ref="NRF11:NRT11"/>
+    <mergeCell ref="NRV11:NSJ11"/>
+    <mergeCell ref="NSL11:NSZ11"/>
+    <mergeCell ref="NTB11:NTP11"/>
+    <mergeCell ref="NTR11:NUF11"/>
+    <mergeCell ref="NOD11:NOR11"/>
+    <mergeCell ref="NOT11:NPH11"/>
+    <mergeCell ref="NPJ11:NPX11"/>
+    <mergeCell ref="NPZ11:NQN11"/>
+    <mergeCell ref="NQP11:NRD11"/>
+    <mergeCell ref="OJR11:OKF11"/>
+    <mergeCell ref="OKH11:OKV11"/>
+    <mergeCell ref="OKX11:OLL11"/>
+    <mergeCell ref="OLN11:OMB11"/>
+    <mergeCell ref="OMD11:OMR11"/>
+    <mergeCell ref="OGP11:OHD11"/>
+    <mergeCell ref="OHF11:OHT11"/>
+    <mergeCell ref="OHV11:OIJ11"/>
+    <mergeCell ref="OIL11:OIZ11"/>
+    <mergeCell ref="OJB11:OJP11"/>
+    <mergeCell ref="ODN11:OEB11"/>
+    <mergeCell ref="OED11:OER11"/>
+    <mergeCell ref="OET11:OFH11"/>
+    <mergeCell ref="OFJ11:OFX11"/>
+    <mergeCell ref="OFZ11:OGN11"/>
+    <mergeCell ref="OAL11:OAZ11"/>
+    <mergeCell ref="OBB11:OBP11"/>
+    <mergeCell ref="OBR11:OCF11"/>
+    <mergeCell ref="OCH11:OCV11"/>
+    <mergeCell ref="OCX11:ODL11"/>
+    <mergeCell ref="OVZ11:OWN11"/>
+    <mergeCell ref="OWP11:OXD11"/>
+    <mergeCell ref="OXF11:OXT11"/>
+    <mergeCell ref="OXV11:OYJ11"/>
+    <mergeCell ref="OYL11:OYZ11"/>
+    <mergeCell ref="OSX11:OTL11"/>
+    <mergeCell ref="OTN11:OUB11"/>
+    <mergeCell ref="OUD11:OUR11"/>
+    <mergeCell ref="OUT11:OVH11"/>
+    <mergeCell ref="OVJ11:OVX11"/>
+    <mergeCell ref="OPV11:OQJ11"/>
+    <mergeCell ref="OQL11:OQZ11"/>
+    <mergeCell ref="ORB11:ORP11"/>
+    <mergeCell ref="ORR11:OSF11"/>
+    <mergeCell ref="OSH11:OSV11"/>
+    <mergeCell ref="OMT11:ONH11"/>
+    <mergeCell ref="ONJ11:ONX11"/>
+    <mergeCell ref="ONZ11:OON11"/>
+    <mergeCell ref="OOP11:OPD11"/>
+    <mergeCell ref="OPF11:OPT11"/>
+    <mergeCell ref="PIH11:PIV11"/>
+    <mergeCell ref="PIX11:PJL11"/>
+    <mergeCell ref="PJN11:PKB11"/>
+    <mergeCell ref="PKD11:PKR11"/>
+    <mergeCell ref="PKT11:PLH11"/>
+    <mergeCell ref="PFF11:PFT11"/>
+    <mergeCell ref="PFV11:PGJ11"/>
+    <mergeCell ref="PGL11:PGZ11"/>
+    <mergeCell ref="PHB11:PHP11"/>
+    <mergeCell ref="PHR11:PIF11"/>
+    <mergeCell ref="PCD11:PCR11"/>
+    <mergeCell ref="PCT11:PDH11"/>
+    <mergeCell ref="PDJ11:PDX11"/>
+    <mergeCell ref="PDZ11:PEN11"/>
+    <mergeCell ref="PEP11:PFD11"/>
+    <mergeCell ref="OZB11:OZP11"/>
+    <mergeCell ref="OZR11:PAF11"/>
+    <mergeCell ref="PAH11:PAV11"/>
+    <mergeCell ref="PAX11:PBL11"/>
+    <mergeCell ref="PBN11:PCB11"/>
+    <mergeCell ref="PUP11:PVD11"/>
+    <mergeCell ref="PVF11:PVT11"/>
+    <mergeCell ref="PVV11:PWJ11"/>
+    <mergeCell ref="PWL11:PWZ11"/>
+    <mergeCell ref="PXB11:PXP11"/>
+    <mergeCell ref="PRN11:PSB11"/>
+    <mergeCell ref="PSD11:PSR11"/>
+    <mergeCell ref="PST11:PTH11"/>
+    <mergeCell ref="PTJ11:PTX11"/>
+    <mergeCell ref="PTZ11:PUN11"/>
+    <mergeCell ref="POL11:POZ11"/>
+    <mergeCell ref="PPB11:PPP11"/>
+    <mergeCell ref="PPR11:PQF11"/>
+    <mergeCell ref="PQH11:PQV11"/>
+    <mergeCell ref="PQX11:PRL11"/>
+    <mergeCell ref="PLJ11:PLX11"/>
+    <mergeCell ref="PLZ11:PMN11"/>
+    <mergeCell ref="PMP11:PND11"/>
+    <mergeCell ref="PNF11:PNT11"/>
+    <mergeCell ref="PNV11:POJ11"/>
+    <mergeCell ref="QGX11:QHL11"/>
+    <mergeCell ref="QHN11:QIB11"/>
+    <mergeCell ref="QID11:QIR11"/>
+    <mergeCell ref="QIT11:QJH11"/>
+    <mergeCell ref="QJJ11:QJX11"/>
+    <mergeCell ref="QDV11:QEJ11"/>
+    <mergeCell ref="QEL11:QEZ11"/>
+    <mergeCell ref="QFB11:QFP11"/>
+    <mergeCell ref="QFR11:QGF11"/>
+    <mergeCell ref="QGH11:QGV11"/>
+    <mergeCell ref="QAT11:QBH11"/>
+    <mergeCell ref="QBJ11:QBX11"/>
+    <mergeCell ref="QBZ11:QCN11"/>
+    <mergeCell ref="QCP11:QDD11"/>
+    <mergeCell ref="QDF11:QDT11"/>
+    <mergeCell ref="PXR11:PYF11"/>
+    <mergeCell ref="PYH11:PYV11"/>
+    <mergeCell ref="PYX11:PZL11"/>
+    <mergeCell ref="PZN11:QAB11"/>
+    <mergeCell ref="QAD11:QAR11"/>
+    <mergeCell ref="QTF11:QTT11"/>
+    <mergeCell ref="QTV11:QUJ11"/>
+    <mergeCell ref="QUL11:QUZ11"/>
+    <mergeCell ref="QVB11:QVP11"/>
+    <mergeCell ref="QVR11:QWF11"/>
+    <mergeCell ref="QQD11:QQR11"/>
+    <mergeCell ref="QQT11:QRH11"/>
+    <mergeCell ref="QRJ11:QRX11"/>
+    <mergeCell ref="QRZ11:QSN11"/>
+    <mergeCell ref="QSP11:QTD11"/>
+    <mergeCell ref="QNB11:QNP11"/>
+    <mergeCell ref="QNR11:QOF11"/>
+    <mergeCell ref="QOH11:QOV11"/>
+    <mergeCell ref="QOX11:QPL11"/>
+    <mergeCell ref="QPN11:QQB11"/>
+    <mergeCell ref="QJZ11:QKN11"/>
+    <mergeCell ref="QKP11:QLD11"/>
+    <mergeCell ref="QLF11:QLT11"/>
+    <mergeCell ref="QLV11:QMJ11"/>
+    <mergeCell ref="QML11:QMZ11"/>
+    <mergeCell ref="RFN11:RGB11"/>
+    <mergeCell ref="RGD11:RGR11"/>
+    <mergeCell ref="RGT11:RHH11"/>
+    <mergeCell ref="RHJ11:RHX11"/>
+    <mergeCell ref="RHZ11:RIN11"/>
+    <mergeCell ref="RCL11:RCZ11"/>
+    <mergeCell ref="RDB11:RDP11"/>
+    <mergeCell ref="RDR11:REF11"/>
+    <mergeCell ref="REH11:REV11"/>
+    <mergeCell ref="REX11:RFL11"/>
+    <mergeCell ref="QZJ11:QZX11"/>
+    <mergeCell ref="QZZ11:RAN11"/>
+    <mergeCell ref="RAP11:RBD11"/>
+    <mergeCell ref="RBF11:RBT11"/>
+    <mergeCell ref="RBV11:RCJ11"/>
+    <mergeCell ref="QWH11:QWV11"/>
+    <mergeCell ref="QWX11:QXL11"/>
+    <mergeCell ref="QXN11:QYB11"/>
+    <mergeCell ref="QYD11:QYR11"/>
+    <mergeCell ref="QYT11:QZH11"/>
+    <mergeCell ref="RRV11:RSJ11"/>
+    <mergeCell ref="RSL11:RSZ11"/>
+    <mergeCell ref="RTB11:RTP11"/>
+    <mergeCell ref="RTR11:RUF11"/>
+    <mergeCell ref="RUH11:RUV11"/>
+    <mergeCell ref="ROT11:RPH11"/>
+    <mergeCell ref="RPJ11:RPX11"/>
+    <mergeCell ref="RPZ11:RQN11"/>
+    <mergeCell ref="RQP11:RRD11"/>
+    <mergeCell ref="RRF11:RRT11"/>
+    <mergeCell ref="RLR11:RMF11"/>
+    <mergeCell ref="RMH11:RMV11"/>
+    <mergeCell ref="RMX11:RNL11"/>
+    <mergeCell ref="RNN11:ROB11"/>
+    <mergeCell ref="ROD11:ROR11"/>
+    <mergeCell ref="RIP11:RJD11"/>
+    <mergeCell ref="RJF11:RJT11"/>
+    <mergeCell ref="RJV11:RKJ11"/>
+    <mergeCell ref="RKL11:RKZ11"/>
+    <mergeCell ref="RLB11:RLP11"/>
+    <mergeCell ref="SED11:SER11"/>
+    <mergeCell ref="SET11:SFH11"/>
+    <mergeCell ref="SFJ11:SFX11"/>
+    <mergeCell ref="SFZ11:SGN11"/>
+    <mergeCell ref="SGP11:SHD11"/>
+    <mergeCell ref="SBB11:SBP11"/>
+    <mergeCell ref="SBR11:SCF11"/>
+    <mergeCell ref="SCH11:SCV11"/>
+    <mergeCell ref="SCX11:SDL11"/>
+    <mergeCell ref="SDN11:SEB11"/>
+    <mergeCell ref="RXZ11:RYN11"/>
+    <mergeCell ref="RYP11:RZD11"/>
+    <mergeCell ref="RZF11:RZT11"/>
+    <mergeCell ref="RZV11:SAJ11"/>
+    <mergeCell ref="SAL11:SAZ11"/>
+    <mergeCell ref="RUX11:RVL11"/>
+    <mergeCell ref="RVN11:RWB11"/>
+    <mergeCell ref="RWD11:RWR11"/>
+    <mergeCell ref="RWT11:RXH11"/>
+    <mergeCell ref="RXJ11:RXX11"/>
+    <mergeCell ref="SQL11:SQZ11"/>
+    <mergeCell ref="SRB11:SRP11"/>
+    <mergeCell ref="SRR11:SSF11"/>
+    <mergeCell ref="SSH11:SSV11"/>
+    <mergeCell ref="SSX11:STL11"/>
+    <mergeCell ref="SNJ11:SNX11"/>
+    <mergeCell ref="SNZ11:SON11"/>
+    <mergeCell ref="SOP11:SPD11"/>
+    <mergeCell ref="SPF11:SPT11"/>
+    <mergeCell ref="SPV11:SQJ11"/>
+    <mergeCell ref="SKH11:SKV11"/>
+    <mergeCell ref="SKX11:SLL11"/>
+    <mergeCell ref="SLN11:SMB11"/>
+    <mergeCell ref="SMD11:SMR11"/>
+    <mergeCell ref="SMT11:SNH11"/>
+    <mergeCell ref="SHF11:SHT11"/>
+    <mergeCell ref="SHV11:SIJ11"/>
+    <mergeCell ref="SIL11:SIZ11"/>
+    <mergeCell ref="SJB11:SJP11"/>
+    <mergeCell ref="SJR11:SKF11"/>
+    <mergeCell ref="TCT11:TDH11"/>
+    <mergeCell ref="TDJ11:TDX11"/>
+    <mergeCell ref="TDZ11:TEN11"/>
+    <mergeCell ref="TEP11:TFD11"/>
+    <mergeCell ref="TFF11:TFT11"/>
+    <mergeCell ref="SZR11:TAF11"/>
+    <mergeCell ref="TAH11:TAV11"/>
+    <mergeCell ref="TAX11:TBL11"/>
+    <mergeCell ref="TBN11:TCB11"/>
+    <mergeCell ref="TCD11:TCR11"/>
+    <mergeCell ref="SWP11:SXD11"/>
+    <mergeCell ref="SXF11:SXT11"/>
+    <mergeCell ref="SXV11:SYJ11"/>
+    <mergeCell ref="SYL11:SYZ11"/>
+    <mergeCell ref="SZB11:SZP11"/>
+    <mergeCell ref="STN11:SUB11"/>
+    <mergeCell ref="SUD11:SUR11"/>
+    <mergeCell ref="SUT11:SVH11"/>
+    <mergeCell ref="SVJ11:SVX11"/>
+    <mergeCell ref="SVZ11:SWN11"/>
+    <mergeCell ref="TPB11:TPP11"/>
+    <mergeCell ref="TPR11:TQF11"/>
+    <mergeCell ref="TQH11:TQV11"/>
+    <mergeCell ref="TQX11:TRL11"/>
+    <mergeCell ref="TRN11:TSB11"/>
+    <mergeCell ref="TLZ11:TMN11"/>
+    <mergeCell ref="TMP11:TND11"/>
+    <mergeCell ref="TNF11:TNT11"/>
+    <mergeCell ref="TNV11:TOJ11"/>
+    <mergeCell ref="TOL11:TOZ11"/>
+    <mergeCell ref="TIX11:TJL11"/>
+    <mergeCell ref="TJN11:TKB11"/>
+    <mergeCell ref="TKD11:TKR11"/>
+    <mergeCell ref="TKT11:TLH11"/>
+    <mergeCell ref="TLJ11:TLX11"/>
+    <mergeCell ref="TFV11:TGJ11"/>
+    <mergeCell ref="TGL11:TGZ11"/>
+    <mergeCell ref="THB11:THP11"/>
+    <mergeCell ref="THR11:TIF11"/>
+    <mergeCell ref="TIH11:TIV11"/>
+    <mergeCell ref="UBJ11:UBX11"/>
+    <mergeCell ref="UBZ11:UCN11"/>
+    <mergeCell ref="UCP11:UDD11"/>
+    <mergeCell ref="UDF11:UDT11"/>
+    <mergeCell ref="UDV11:UEJ11"/>
+    <mergeCell ref="TYH11:TYV11"/>
+    <mergeCell ref="TYX11:TZL11"/>
+    <mergeCell ref="TZN11:UAB11"/>
+    <mergeCell ref="UAD11:UAR11"/>
+    <mergeCell ref="UAT11:UBH11"/>
+    <mergeCell ref="TVF11:TVT11"/>
+    <mergeCell ref="TVV11:TWJ11"/>
+    <mergeCell ref="TWL11:TWZ11"/>
+    <mergeCell ref="TXB11:TXP11"/>
+    <mergeCell ref="TXR11:TYF11"/>
+    <mergeCell ref="TSD11:TSR11"/>
+    <mergeCell ref="TST11:TTH11"/>
+    <mergeCell ref="TTJ11:TTX11"/>
+    <mergeCell ref="TTZ11:TUN11"/>
+    <mergeCell ref="TUP11:TVD11"/>
+    <mergeCell ref="UNR11:UOF11"/>
+    <mergeCell ref="UOH11:UOV11"/>
+    <mergeCell ref="UOX11:UPL11"/>
+    <mergeCell ref="UPN11:UQB11"/>
+    <mergeCell ref="UQD11:UQR11"/>
+    <mergeCell ref="UKP11:ULD11"/>
+    <mergeCell ref="ULF11:ULT11"/>
+    <mergeCell ref="ULV11:UMJ11"/>
+    <mergeCell ref="UML11:UMZ11"/>
+    <mergeCell ref="UNB11:UNP11"/>
+    <mergeCell ref="UHN11:UIB11"/>
+    <mergeCell ref="UID11:UIR11"/>
+    <mergeCell ref="UIT11:UJH11"/>
+    <mergeCell ref="UJJ11:UJX11"/>
+    <mergeCell ref="UJZ11:UKN11"/>
+    <mergeCell ref="UEL11:UEZ11"/>
+    <mergeCell ref="UFB11:UFP11"/>
+    <mergeCell ref="UFR11:UGF11"/>
+    <mergeCell ref="UGH11:UGV11"/>
+    <mergeCell ref="UGX11:UHL11"/>
+    <mergeCell ref="UZZ11:VAN11"/>
+    <mergeCell ref="VAP11:VBD11"/>
+    <mergeCell ref="VBF11:VBT11"/>
+    <mergeCell ref="VBV11:VCJ11"/>
+    <mergeCell ref="VCL11:VCZ11"/>
+    <mergeCell ref="UWX11:UXL11"/>
+    <mergeCell ref="UXN11:UYB11"/>
+    <mergeCell ref="UYD11:UYR11"/>
+    <mergeCell ref="UYT11:UZH11"/>
+    <mergeCell ref="UZJ11:UZX11"/>
+    <mergeCell ref="UTV11:UUJ11"/>
+    <mergeCell ref="UUL11:UUZ11"/>
+    <mergeCell ref="UVB11:UVP11"/>
+    <mergeCell ref="UVR11:UWF11"/>
+    <mergeCell ref="UWH11:UWV11"/>
+    <mergeCell ref="UQT11:URH11"/>
+    <mergeCell ref="URJ11:URX11"/>
+    <mergeCell ref="URZ11:USN11"/>
+    <mergeCell ref="USP11:UTD11"/>
+    <mergeCell ref="UTF11:UTT11"/>
+    <mergeCell ref="VMH11:VMV11"/>
+    <mergeCell ref="VMX11:VNL11"/>
+    <mergeCell ref="VNN11:VOB11"/>
+    <mergeCell ref="VOD11:VOR11"/>
+    <mergeCell ref="VOT11:VPH11"/>
+    <mergeCell ref="VJF11:VJT11"/>
+    <mergeCell ref="VJV11:VKJ11"/>
+    <mergeCell ref="VKL11:VKZ11"/>
+    <mergeCell ref="VLB11:VLP11"/>
+    <mergeCell ref="VLR11:VMF11"/>
+    <mergeCell ref="VGD11:VGR11"/>
+    <mergeCell ref="VGT11:VHH11"/>
+    <mergeCell ref="VHJ11:VHX11"/>
+    <mergeCell ref="VHZ11:VIN11"/>
+    <mergeCell ref="VIP11:VJD11"/>
+    <mergeCell ref="VDB11:VDP11"/>
+    <mergeCell ref="VDR11:VEF11"/>
+    <mergeCell ref="VEH11:VEV11"/>
+    <mergeCell ref="VEX11:VFL11"/>
+    <mergeCell ref="VFN11:VGB11"/>
+    <mergeCell ref="VYP11:VZD11"/>
+    <mergeCell ref="VZF11:VZT11"/>
+    <mergeCell ref="VZV11:WAJ11"/>
+    <mergeCell ref="WAL11:WAZ11"/>
+    <mergeCell ref="WBB11:WBP11"/>
+    <mergeCell ref="VVN11:VWB11"/>
+    <mergeCell ref="VWD11:VWR11"/>
+    <mergeCell ref="VWT11:VXH11"/>
+    <mergeCell ref="VXJ11:VXX11"/>
+    <mergeCell ref="VXZ11:VYN11"/>
+    <mergeCell ref="VSL11:VSZ11"/>
+    <mergeCell ref="VTB11:VTP11"/>
+    <mergeCell ref="VTR11:VUF11"/>
+    <mergeCell ref="VUH11:VUV11"/>
+    <mergeCell ref="VUX11:VVL11"/>
+    <mergeCell ref="VPJ11:VPX11"/>
+    <mergeCell ref="VPZ11:VQN11"/>
+    <mergeCell ref="VQP11:VRD11"/>
+    <mergeCell ref="VRF11:VRT11"/>
+    <mergeCell ref="VRV11:VSJ11"/>
+    <mergeCell ref="WLN11:WMB11"/>
+    <mergeCell ref="WMD11:WMR11"/>
+    <mergeCell ref="WMT11:WNH11"/>
+    <mergeCell ref="WNJ11:WNX11"/>
+    <mergeCell ref="WHV11:WIJ11"/>
+    <mergeCell ref="WIL11:WIZ11"/>
+    <mergeCell ref="WJB11:WJP11"/>
+    <mergeCell ref="WJR11:WKF11"/>
+    <mergeCell ref="WKH11:WKV11"/>
+    <mergeCell ref="WET11:WFH11"/>
+    <mergeCell ref="WFJ11:WFX11"/>
+    <mergeCell ref="WFZ11:WGN11"/>
+    <mergeCell ref="WGP11:WHD11"/>
+    <mergeCell ref="WHF11:WHT11"/>
+    <mergeCell ref="WBR11:WCF11"/>
+    <mergeCell ref="WCH11:WCV11"/>
+    <mergeCell ref="WCX11:WDL11"/>
+    <mergeCell ref="WDN11:WEB11"/>
+    <mergeCell ref="WED11:WER11"/>
     <mergeCell ref="XDJ11:XDX11"/>
     <mergeCell ref="XDZ11:XEN11"/>
     <mergeCell ref="XEP11:XFD11"/>
@@ -17438,1008 +18435,6 @@
     <mergeCell ref="WPV11:WQJ11"/>
     <mergeCell ref="WQL11:WQZ11"/>
     <mergeCell ref="WKX11:WLL11"/>
-    <mergeCell ref="WLN11:WMB11"/>
-    <mergeCell ref="WMD11:WMR11"/>
-    <mergeCell ref="WMT11:WNH11"/>
-    <mergeCell ref="WNJ11:WNX11"/>
-    <mergeCell ref="WHV11:WIJ11"/>
-    <mergeCell ref="WIL11:WIZ11"/>
-    <mergeCell ref="WJB11:WJP11"/>
-    <mergeCell ref="WJR11:WKF11"/>
-    <mergeCell ref="WKH11:WKV11"/>
-    <mergeCell ref="WET11:WFH11"/>
-    <mergeCell ref="WFJ11:WFX11"/>
-    <mergeCell ref="WFZ11:WGN11"/>
-    <mergeCell ref="WGP11:WHD11"/>
-    <mergeCell ref="WHF11:WHT11"/>
-    <mergeCell ref="WBR11:WCF11"/>
-    <mergeCell ref="WCH11:WCV11"/>
-    <mergeCell ref="WCX11:WDL11"/>
-    <mergeCell ref="WDN11:WEB11"/>
-    <mergeCell ref="WED11:WER11"/>
-    <mergeCell ref="VYP11:VZD11"/>
-    <mergeCell ref="VZF11:VZT11"/>
-    <mergeCell ref="VZV11:WAJ11"/>
-    <mergeCell ref="WAL11:WAZ11"/>
-    <mergeCell ref="WBB11:WBP11"/>
-    <mergeCell ref="VVN11:VWB11"/>
-    <mergeCell ref="VWD11:VWR11"/>
-    <mergeCell ref="VWT11:VXH11"/>
-    <mergeCell ref="VXJ11:VXX11"/>
-    <mergeCell ref="VXZ11:VYN11"/>
-    <mergeCell ref="VSL11:VSZ11"/>
-    <mergeCell ref="VTB11:VTP11"/>
-    <mergeCell ref="VTR11:VUF11"/>
-    <mergeCell ref="VUH11:VUV11"/>
-    <mergeCell ref="VUX11:VVL11"/>
-    <mergeCell ref="VPJ11:VPX11"/>
-    <mergeCell ref="VPZ11:VQN11"/>
-    <mergeCell ref="VQP11:VRD11"/>
-    <mergeCell ref="VRF11:VRT11"/>
-    <mergeCell ref="VRV11:VSJ11"/>
-    <mergeCell ref="VMH11:VMV11"/>
-    <mergeCell ref="VMX11:VNL11"/>
-    <mergeCell ref="VNN11:VOB11"/>
-    <mergeCell ref="VOD11:VOR11"/>
-    <mergeCell ref="VOT11:VPH11"/>
-    <mergeCell ref="VJF11:VJT11"/>
-    <mergeCell ref="VJV11:VKJ11"/>
-    <mergeCell ref="VKL11:VKZ11"/>
-    <mergeCell ref="VLB11:VLP11"/>
-    <mergeCell ref="VLR11:VMF11"/>
-    <mergeCell ref="VGD11:VGR11"/>
-    <mergeCell ref="VGT11:VHH11"/>
-    <mergeCell ref="VHJ11:VHX11"/>
-    <mergeCell ref="VHZ11:VIN11"/>
-    <mergeCell ref="VIP11:VJD11"/>
-    <mergeCell ref="VDB11:VDP11"/>
-    <mergeCell ref="VDR11:VEF11"/>
-    <mergeCell ref="VEH11:VEV11"/>
-    <mergeCell ref="VEX11:VFL11"/>
-    <mergeCell ref="VFN11:VGB11"/>
-    <mergeCell ref="UZZ11:VAN11"/>
-    <mergeCell ref="VAP11:VBD11"/>
-    <mergeCell ref="VBF11:VBT11"/>
-    <mergeCell ref="VBV11:VCJ11"/>
-    <mergeCell ref="VCL11:VCZ11"/>
-    <mergeCell ref="UWX11:UXL11"/>
-    <mergeCell ref="UXN11:UYB11"/>
-    <mergeCell ref="UYD11:UYR11"/>
-    <mergeCell ref="UYT11:UZH11"/>
-    <mergeCell ref="UZJ11:UZX11"/>
-    <mergeCell ref="UTV11:UUJ11"/>
-    <mergeCell ref="UUL11:UUZ11"/>
-    <mergeCell ref="UVB11:UVP11"/>
-    <mergeCell ref="UVR11:UWF11"/>
-    <mergeCell ref="UWH11:UWV11"/>
-    <mergeCell ref="UQT11:URH11"/>
-    <mergeCell ref="URJ11:URX11"/>
-    <mergeCell ref="URZ11:USN11"/>
-    <mergeCell ref="USP11:UTD11"/>
-    <mergeCell ref="UTF11:UTT11"/>
-    <mergeCell ref="UNR11:UOF11"/>
-    <mergeCell ref="UOH11:UOV11"/>
-    <mergeCell ref="UOX11:UPL11"/>
-    <mergeCell ref="UPN11:UQB11"/>
-    <mergeCell ref="UQD11:UQR11"/>
-    <mergeCell ref="UKP11:ULD11"/>
-    <mergeCell ref="ULF11:ULT11"/>
-    <mergeCell ref="ULV11:UMJ11"/>
-    <mergeCell ref="UML11:UMZ11"/>
-    <mergeCell ref="UNB11:UNP11"/>
-    <mergeCell ref="UHN11:UIB11"/>
-    <mergeCell ref="UID11:UIR11"/>
-    <mergeCell ref="UIT11:UJH11"/>
-    <mergeCell ref="UJJ11:UJX11"/>
-    <mergeCell ref="UJZ11:UKN11"/>
-    <mergeCell ref="UEL11:UEZ11"/>
-    <mergeCell ref="UFB11:UFP11"/>
-    <mergeCell ref="UFR11:UGF11"/>
-    <mergeCell ref="UGH11:UGV11"/>
-    <mergeCell ref="UGX11:UHL11"/>
-    <mergeCell ref="UBJ11:UBX11"/>
-    <mergeCell ref="UBZ11:UCN11"/>
-    <mergeCell ref="UCP11:UDD11"/>
-    <mergeCell ref="UDF11:UDT11"/>
-    <mergeCell ref="UDV11:UEJ11"/>
-    <mergeCell ref="TYH11:TYV11"/>
-    <mergeCell ref="TYX11:TZL11"/>
-    <mergeCell ref="TZN11:UAB11"/>
-    <mergeCell ref="UAD11:UAR11"/>
-    <mergeCell ref="UAT11:UBH11"/>
-    <mergeCell ref="TVF11:TVT11"/>
-    <mergeCell ref="TVV11:TWJ11"/>
-    <mergeCell ref="TWL11:TWZ11"/>
-    <mergeCell ref="TXB11:TXP11"/>
-    <mergeCell ref="TXR11:TYF11"/>
-    <mergeCell ref="TSD11:TSR11"/>
-    <mergeCell ref="TST11:TTH11"/>
-    <mergeCell ref="TTJ11:TTX11"/>
-    <mergeCell ref="TTZ11:TUN11"/>
-    <mergeCell ref="TUP11:TVD11"/>
-    <mergeCell ref="TPB11:TPP11"/>
-    <mergeCell ref="TPR11:TQF11"/>
-    <mergeCell ref="TQH11:TQV11"/>
-    <mergeCell ref="TQX11:TRL11"/>
-    <mergeCell ref="TRN11:TSB11"/>
-    <mergeCell ref="TLZ11:TMN11"/>
-    <mergeCell ref="TMP11:TND11"/>
-    <mergeCell ref="TNF11:TNT11"/>
-    <mergeCell ref="TNV11:TOJ11"/>
-    <mergeCell ref="TOL11:TOZ11"/>
-    <mergeCell ref="TIX11:TJL11"/>
-    <mergeCell ref="TJN11:TKB11"/>
-    <mergeCell ref="TKD11:TKR11"/>
-    <mergeCell ref="TKT11:TLH11"/>
-    <mergeCell ref="TLJ11:TLX11"/>
-    <mergeCell ref="TFV11:TGJ11"/>
-    <mergeCell ref="TGL11:TGZ11"/>
-    <mergeCell ref="THB11:THP11"/>
-    <mergeCell ref="THR11:TIF11"/>
-    <mergeCell ref="TIH11:TIV11"/>
-    <mergeCell ref="TCT11:TDH11"/>
-    <mergeCell ref="TDJ11:TDX11"/>
-    <mergeCell ref="TDZ11:TEN11"/>
-    <mergeCell ref="TEP11:TFD11"/>
-    <mergeCell ref="TFF11:TFT11"/>
-    <mergeCell ref="SZR11:TAF11"/>
-    <mergeCell ref="TAH11:TAV11"/>
-    <mergeCell ref="TAX11:TBL11"/>
-    <mergeCell ref="TBN11:TCB11"/>
-    <mergeCell ref="TCD11:TCR11"/>
-    <mergeCell ref="SWP11:SXD11"/>
-    <mergeCell ref="SXF11:SXT11"/>
-    <mergeCell ref="SXV11:SYJ11"/>
-    <mergeCell ref="SYL11:SYZ11"/>
-    <mergeCell ref="SZB11:SZP11"/>
-    <mergeCell ref="STN11:SUB11"/>
-    <mergeCell ref="SUD11:SUR11"/>
-    <mergeCell ref="SUT11:SVH11"/>
-    <mergeCell ref="SVJ11:SVX11"/>
-    <mergeCell ref="SVZ11:SWN11"/>
-    <mergeCell ref="SQL11:SQZ11"/>
-    <mergeCell ref="SRB11:SRP11"/>
-    <mergeCell ref="SRR11:SSF11"/>
-    <mergeCell ref="SSH11:SSV11"/>
-    <mergeCell ref="SSX11:STL11"/>
-    <mergeCell ref="SNJ11:SNX11"/>
-    <mergeCell ref="SNZ11:SON11"/>
-    <mergeCell ref="SOP11:SPD11"/>
-    <mergeCell ref="SPF11:SPT11"/>
-    <mergeCell ref="SPV11:SQJ11"/>
-    <mergeCell ref="SKH11:SKV11"/>
-    <mergeCell ref="SKX11:SLL11"/>
-    <mergeCell ref="SLN11:SMB11"/>
-    <mergeCell ref="SMD11:SMR11"/>
-    <mergeCell ref="SMT11:SNH11"/>
-    <mergeCell ref="SHF11:SHT11"/>
-    <mergeCell ref="SHV11:SIJ11"/>
-    <mergeCell ref="SIL11:SIZ11"/>
-    <mergeCell ref="SJB11:SJP11"/>
-    <mergeCell ref="SJR11:SKF11"/>
-    <mergeCell ref="SED11:SER11"/>
-    <mergeCell ref="SET11:SFH11"/>
-    <mergeCell ref="SFJ11:SFX11"/>
-    <mergeCell ref="SFZ11:SGN11"/>
-    <mergeCell ref="SGP11:SHD11"/>
-    <mergeCell ref="SBB11:SBP11"/>
-    <mergeCell ref="SBR11:SCF11"/>
-    <mergeCell ref="SCH11:SCV11"/>
-    <mergeCell ref="SCX11:SDL11"/>
-    <mergeCell ref="SDN11:SEB11"/>
-    <mergeCell ref="RXZ11:RYN11"/>
-    <mergeCell ref="RYP11:RZD11"/>
-    <mergeCell ref="RZF11:RZT11"/>
-    <mergeCell ref="RZV11:SAJ11"/>
-    <mergeCell ref="SAL11:SAZ11"/>
-    <mergeCell ref="RUX11:RVL11"/>
-    <mergeCell ref="RVN11:RWB11"/>
-    <mergeCell ref="RWD11:RWR11"/>
-    <mergeCell ref="RWT11:RXH11"/>
-    <mergeCell ref="RXJ11:RXX11"/>
-    <mergeCell ref="RRV11:RSJ11"/>
-    <mergeCell ref="RSL11:RSZ11"/>
-    <mergeCell ref="RTB11:RTP11"/>
-    <mergeCell ref="RTR11:RUF11"/>
-    <mergeCell ref="RUH11:RUV11"/>
-    <mergeCell ref="ROT11:RPH11"/>
-    <mergeCell ref="RPJ11:RPX11"/>
-    <mergeCell ref="RPZ11:RQN11"/>
-    <mergeCell ref="RQP11:RRD11"/>
-    <mergeCell ref="RRF11:RRT11"/>
-    <mergeCell ref="RLR11:RMF11"/>
-    <mergeCell ref="RMH11:RMV11"/>
-    <mergeCell ref="RMX11:RNL11"/>
-    <mergeCell ref="RNN11:ROB11"/>
-    <mergeCell ref="ROD11:ROR11"/>
-    <mergeCell ref="RIP11:RJD11"/>
-    <mergeCell ref="RJF11:RJT11"/>
-    <mergeCell ref="RJV11:RKJ11"/>
-    <mergeCell ref="RKL11:RKZ11"/>
-    <mergeCell ref="RLB11:RLP11"/>
-    <mergeCell ref="RFN11:RGB11"/>
-    <mergeCell ref="RGD11:RGR11"/>
-    <mergeCell ref="RGT11:RHH11"/>
-    <mergeCell ref="RHJ11:RHX11"/>
-    <mergeCell ref="RHZ11:RIN11"/>
-    <mergeCell ref="RCL11:RCZ11"/>
-    <mergeCell ref="RDB11:RDP11"/>
-    <mergeCell ref="RDR11:REF11"/>
-    <mergeCell ref="REH11:REV11"/>
-    <mergeCell ref="REX11:RFL11"/>
-    <mergeCell ref="QZJ11:QZX11"/>
-    <mergeCell ref="QZZ11:RAN11"/>
-    <mergeCell ref="RAP11:RBD11"/>
-    <mergeCell ref="RBF11:RBT11"/>
-    <mergeCell ref="RBV11:RCJ11"/>
-    <mergeCell ref="QWH11:QWV11"/>
-    <mergeCell ref="QWX11:QXL11"/>
-    <mergeCell ref="QXN11:QYB11"/>
-    <mergeCell ref="QYD11:QYR11"/>
-    <mergeCell ref="QYT11:QZH11"/>
-    <mergeCell ref="QTF11:QTT11"/>
-    <mergeCell ref="QTV11:QUJ11"/>
-    <mergeCell ref="QUL11:QUZ11"/>
-    <mergeCell ref="QVB11:QVP11"/>
-    <mergeCell ref="QVR11:QWF11"/>
-    <mergeCell ref="QQD11:QQR11"/>
-    <mergeCell ref="QQT11:QRH11"/>
-    <mergeCell ref="QRJ11:QRX11"/>
-    <mergeCell ref="QRZ11:QSN11"/>
-    <mergeCell ref="QSP11:QTD11"/>
-    <mergeCell ref="QNB11:QNP11"/>
-    <mergeCell ref="QNR11:QOF11"/>
-    <mergeCell ref="QOH11:QOV11"/>
-    <mergeCell ref="QOX11:QPL11"/>
-    <mergeCell ref="QPN11:QQB11"/>
-    <mergeCell ref="QJZ11:QKN11"/>
-    <mergeCell ref="QKP11:QLD11"/>
-    <mergeCell ref="QLF11:QLT11"/>
-    <mergeCell ref="QLV11:QMJ11"/>
-    <mergeCell ref="QML11:QMZ11"/>
-    <mergeCell ref="QGX11:QHL11"/>
-    <mergeCell ref="QHN11:QIB11"/>
-    <mergeCell ref="QID11:QIR11"/>
-    <mergeCell ref="QIT11:QJH11"/>
-    <mergeCell ref="QJJ11:QJX11"/>
-    <mergeCell ref="QDV11:QEJ11"/>
-    <mergeCell ref="QEL11:QEZ11"/>
-    <mergeCell ref="QFB11:QFP11"/>
-    <mergeCell ref="QFR11:QGF11"/>
-    <mergeCell ref="QGH11:QGV11"/>
-    <mergeCell ref="QAT11:QBH11"/>
-    <mergeCell ref="QBJ11:QBX11"/>
-    <mergeCell ref="QBZ11:QCN11"/>
-    <mergeCell ref="QCP11:QDD11"/>
-    <mergeCell ref="QDF11:QDT11"/>
-    <mergeCell ref="PXR11:PYF11"/>
-    <mergeCell ref="PYH11:PYV11"/>
-    <mergeCell ref="PYX11:PZL11"/>
-    <mergeCell ref="PZN11:QAB11"/>
-    <mergeCell ref="QAD11:QAR11"/>
-    <mergeCell ref="PUP11:PVD11"/>
-    <mergeCell ref="PVF11:PVT11"/>
-    <mergeCell ref="PVV11:PWJ11"/>
-    <mergeCell ref="PWL11:PWZ11"/>
-    <mergeCell ref="PXB11:PXP11"/>
-    <mergeCell ref="PRN11:PSB11"/>
-    <mergeCell ref="PSD11:PSR11"/>
-    <mergeCell ref="PST11:PTH11"/>
-    <mergeCell ref="PTJ11:PTX11"/>
-    <mergeCell ref="PTZ11:PUN11"/>
-    <mergeCell ref="POL11:POZ11"/>
-    <mergeCell ref="PPB11:PPP11"/>
-    <mergeCell ref="PPR11:PQF11"/>
-    <mergeCell ref="PQH11:PQV11"/>
-    <mergeCell ref="PQX11:PRL11"/>
-    <mergeCell ref="PLJ11:PLX11"/>
-    <mergeCell ref="PLZ11:PMN11"/>
-    <mergeCell ref="PMP11:PND11"/>
-    <mergeCell ref="PNF11:PNT11"/>
-    <mergeCell ref="PNV11:POJ11"/>
-    <mergeCell ref="PIH11:PIV11"/>
-    <mergeCell ref="PIX11:PJL11"/>
-    <mergeCell ref="PJN11:PKB11"/>
-    <mergeCell ref="PKD11:PKR11"/>
-    <mergeCell ref="PKT11:PLH11"/>
-    <mergeCell ref="PFF11:PFT11"/>
-    <mergeCell ref="PFV11:PGJ11"/>
-    <mergeCell ref="PGL11:PGZ11"/>
-    <mergeCell ref="PHB11:PHP11"/>
-    <mergeCell ref="PHR11:PIF11"/>
-    <mergeCell ref="PCD11:PCR11"/>
-    <mergeCell ref="PCT11:PDH11"/>
-    <mergeCell ref="PDJ11:PDX11"/>
-    <mergeCell ref="PDZ11:PEN11"/>
-    <mergeCell ref="PEP11:PFD11"/>
-    <mergeCell ref="OZB11:OZP11"/>
-    <mergeCell ref="OZR11:PAF11"/>
-    <mergeCell ref="PAH11:PAV11"/>
-    <mergeCell ref="PAX11:PBL11"/>
-    <mergeCell ref="PBN11:PCB11"/>
-    <mergeCell ref="OVZ11:OWN11"/>
-    <mergeCell ref="OWP11:OXD11"/>
-    <mergeCell ref="OXF11:OXT11"/>
-    <mergeCell ref="OXV11:OYJ11"/>
-    <mergeCell ref="OYL11:OYZ11"/>
-    <mergeCell ref="OSX11:OTL11"/>
-    <mergeCell ref="OTN11:OUB11"/>
-    <mergeCell ref="OUD11:OUR11"/>
-    <mergeCell ref="OUT11:OVH11"/>
-    <mergeCell ref="OVJ11:OVX11"/>
-    <mergeCell ref="OPV11:OQJ11"/>
-    <mergeCell ref="OQL11:OQZ11"/>
-    <mergeCell ref="ORB11:ORP11"/>
-    <mergeCell ref="ORR11:OSF11"/>
-    <mergeCell ref="OSH11:OSV11"/>
-    <mergeCell ref="OMT11:ONH11"/>
-    <mergeCell ref="ONJ11:ONX11"/>
-    <mergeCell ref="ONZ11:OON11"/>
-    <mergeCell ref="OOP11:OPD11"/>
-    <mergeCell ref="OPF11:OPT11"/>
-    <mergeCell ref="OJR11:OKF11"/>
-    <mergeCell ref="OKH11:OKV11"/>
-    <mergeCell ref="OKX11:OLL11"/>
-    <mergeCell ref="OLN11:OMB11"/>
-    <mergeCell ref="OMD11:OMR11"/>
-    <mergeCell ref="OGP11:OHD11"/>
-    <mergeCell ref="OHF11:OHT11"/>
-    <mergeCell ref="OHV11:OIJ11"/>
-    <mergeCell ref="OIL11:OIZ11"/>
-    <mergeCell ref="OJB11:OJP11"/>
-    <mergeCell ref="ODN11:OEB11"/>
-    <mergeCell ref="OED11:OER11"/>
-    <mergeCell ref="OET11:OFH11"/>
-    <mergeCell ref="OFJ11:OFX11"/>
-    <mergeCell ref="OFZ11:OGN11"/>
-    <mergeCell ref="OAL11:OAZ11"/>
-    <mergeCell ref="OBB11:OBP11"/>
-    <mergeCell ref="OBR11:OCF11"/>
-    <mergeCell ref="OCH11:OCV11"/>
-    <mergeCell ref="OCX11:ODL11"/>
-    <mergeCell ref="NXJ11:NXX11"/>
-    <mergeCell ref="NXZ11:NYN11"/>
-    <mergeCell ref="NYP11:NZD11"/>
-    <mergeCell ref="NZF11:NZT11"/>
-    <mergeCell ref="NZV11:OAJ11"/>
-    <mergeCell ref="NUH11:NUV11"/>
-    <mergeCell ref="NUX11:NVL11"/>
-    <mergeCell ref="NVN11:NWB11"/>
-    <mergeCell ref="NWD11:NWR11"/>
-    <mergeCell ref="NWT11:NXH11"/>
-    <mergeCell ref="NRF11:NRT11"/>
-    <mergeCell ref="NRV11:NSJ11"/>
-    <mergeCell ref="NSL11:NSZ11"/>
-    <mergeCell ref="NTB11:NTP11"/>
-    <mergeCell ref="NTR11:NUF11"/>
-    <mergeCell ref="NOD11:NOR11"/>
-    <mergeCell ref="NOT11:NPH11"/>
-    <mergeCell ref="NPJ11:NPX11"/>
-    <mergeCell ref="NPZ11:NQN11"/>
-    <mergeCell ref="NQP11:NRD11"/>
-    <mergeCell ref="NLB11:NLP11"/>
-    <mergeCell ref="NLR11:NMF11"/>
-    <mergeCell ref="NMH11:NMV11"/>
-    <mergeCell ref="NMX11:NNL11"/>
-    <mergeCell ref="NNN11:NOB11"/>
-    <mergeCell ref="NHZ11:NIN11"/>
-    <mergeCell ref="NIP11:NJD11"/>
-    <mergeCell ref="NJF11:NJT11"/>
-    <mergeCell ref="NJV11:NKJ11"/>
-    <mergeCell ref="NKL11:NKZ11"/>
-    <mergeCell ref="NEX11:NFL11"/>
-    <mergeCell ref="NFN11:NGB11"/>
-    <mergeCell ref="NGD11:NGR11"/>
-    <mergeCell ref="NGT11:NHH11"/>
-    <mergeCell ref="NHJ11:NHX11"/>
-    <mergeCell ref="NBV11:NCJ11"/>
-    <mergeCell ref="NCL11:NCZ11"/>
-    <mergeCell ref="NDB11:NDP11"/>
-    <mergeCell ref="NDR11:NEF11"/>
-    <mergeCell ref="NEH11:NEV11"/>
-    <mergeCell ref="MYT11:MZH11"/>
-    <mergeCell ref="MZJ11:MZX11"/>
-    <mergeCell ref="MZZ11:NAN11"/>
-    <mergeCell ref="NAP11:NBD11"/>
-    <mergeCell ref="NBF11:NBT11"/>
-    <mergeCell ref="MVR11:MWF11"/>
-    <mergeCell ref="MWH11:MWV11"/>
-    <mergeCell ref="MWX11:MXL11"/>
-    <mergeCell ref="MXN11:MYB11"/>
-    <mergeCell ref="MYD11:MYR11"/>
-    <mergeCell ref="MSP11:MTD11"/>
-    <mergeCell ref="MTF11:MTT11"/>
-    <mergeCell ref="MTV11:MUJ11"/>
-    <mergeCell ref="MUL11:MUZ11"/>
-    <mergeCell ref="MVB11:MVP11"/>
-    <mergeCell ref="MPN11:MQB11"/>
-    <mergeCell ref="MQD11:MQR11"/>
-    <mergeCell ref="MQT11:MRH11"/>
-    <mergeCell ref="MRJ11:MRX11"/>
-    <mergeCell ref="MRZ11:MSN11"/>
-    <mergeCell ref="MML11:MMZ11"/>
-    <mergeCell ref="MNB11:MNP11"/>
-    <mergeCell ref="MNR11:MOF11"/>
-    <mergeCell ref="MOH11:MOV11"/>
-    <mergeCell ref="MOX11:MPL11"/>
-    <mergeCell ref="MJJ11:MJX11"/>
-    <mergeCell ref="MJZ11:MKN11"/>
-    <mergeCell ref="MKP11:MLD11"/>
-    <mergeCell ref="MLF11:MLT11"/>
-    <mergeCell ref="MLV11:MMJ11"/>
-    <mergeCell ref="MGH11:MGV11"/>
-    <mergeCell ref="MGX11:MHL11"/>
-    <mergeCell ref="MHN11:MIB11"/>
-    <mergeCell ref="MID11:MIR11"/>
-    <mergeCell ref="MIT11:MJH11"/>
-    <mergeCell ref="MDF11:MDT11"/>
-    <mergeCell ref="MDV11:MEJ11"/>
-    <mergeCell ref="MEL11:MEZ11"/>
-    <mergeCell ref="MFB11:MFP11"/>
-    <mergeCell ref="MFR11:MGF11"/>
-    <mergeCell ref="MAD11:MAR11"/>
-    <mergeCell ref="MAT11:MBH11"/>
-    <mergeCell ref="MBJ11:MBX11"/>
-    <mergeCell ref="MBZ11:MCN11"/>
-    <mergeCell ref="MCP11:MDD11"/>
-    <mergeCell ref="LXB11:LXP11"/>
-    <mergeCell ref="LXR11:LYF11"/>
-    <mergeCell ref="LYH11:LYV11"/>
-    <mergeCell ref="LYX11:LZL11"/>
-    <mergeCell ref="LZN11:MAB11"/>
-    <mergeCell ref="LTZ11:LUN11"/>
-    <mergeCell ref="LUP11:LVD11"/>
-    <mergeCell ref="LVF11:LVT11"/>
-    <mergeCell ref="LVV11:LWJ11"/>
-    <mergeCell ref="LWL11:LWZ11"/>
-    <mergeCell ref="LQX11:LRL11"/>
-    <mergeCell ref="LRN11:LSB11"/>
-    <mergeCell ref="LSD11:LSR11"/>
-    <mergeCell ref="LST11:LTH11"/>
-    <mergeCell ref="LTJ11:LTX11"/>
-    <mergeCell ref="LNV11:LOJ11"/>
-    <mergeCell ref="LOL11:LOZ11"/>
-    <mergeCell ref="LPB11:LPP11"/>
-    <mergeCell ref="LPR11:LQF11"/>
-    <mergeCell ref="LQH11:LQV11"/>
-    <mergeCell ref="LKT11:LLH11"/>
-    <mergeCell ref="LLJ11:LLX11"/>
-    <mergeCell ref="LLZ11:LMN11"/>
-    <mergeCell ref="LMP11:LND11"/>
-    <mergeCell ref="LNF11:LNT11"/>
-    <mergeCell ref="LHR11:LIF11"/>
-    <mergeCell ref="LIH11:LIV11"/>
-    <mergeCell ref="LIX11:LJL11"/>
-    <mergeCell ref="LJN11:LKB11"/>
-    <mergeCell ref="LKD11:LKR11"/>
-    <mergeCell ref="LEP11:LFD11"/>
-    <mergeCell ref="LFF11:LFT11"/>
-    <mergeCell ref="LFV11:LGJ11"/>
-    <mergeCell ref="LGL11:LGZ11"/>
-    <mergeCell ref="LHB11:LHP11"/>
-    <mergeCell ref="LBN11:LCB11"/>
-    <mergeCell ref="LCD11:LCR11"/>
-    <mergeCell ref="LCT11:LDH11"/>
-    <mergeCell ref="LDJ11:LDX11"/>
-    <mergeCell ref="LDZ11:LEN11"/>
-    <mergeCell ref="KYL11:KYZ11"/>
-    <mergeCell ref="KZB11:KZP11"/>
-    <mergeCell ref="KZR11:LAF11"/>
-    <mergeCell ref="LAH11:LAV11"/>
-    <mergeCell ref="LAX11:LBL11"/>
-    <mergeCell ref="KVJ11:KVX11"/>
-    <mergeCell ref="KVZ11:KWN11"/>
-    <mergeCell ref="KWP11:KXD11"/>
-    <mergeCell ref="KXF11:KXT11"/>
-    <mergeCell ref="KXV11:KYJ11"/>
-    <mergeCell ref="KSH11:KSV11"/>
-    <mergeCell ref="KSX11:KTL11"/>
-    <mergeCell ref="KTN11:KUB11"/>
-    <mergeCell ref="KUD11:KUR11"/>
-    <mergeCell ref="KUT11:KVH11"/>
-    <mergeCell ref="KPF11:KPT11"/>
-    <mergeCell ref="KPV11:KQJ11"/>
-    <mergeCell ref="KQL11:KQZ11"/>
-    <mergeCell ref="KRB11:KRP11"/>
-    <mergeCell ref="KRR11:KSF11"/>
-    <mergeCell ref="KMD11:KMR11"/>
-    <mergeCell ref="KMT11:KNH11"/>
-    <mergeCell ref="KNJ11:KNX11"/>
-    <mergeCell ref="KNZ11:KON11"/>
-    <mergeCell ref="KOP11:KPD11"/>
-    <mergeCell ref="KJB11:KJP11"/>
-    <mergeCell ref="KJR11:KKF11"/>
-    <mergeCell ref="KKH11:KKV11"/>
-    <mergeCell ref="KKX11:KLL11"/>
-    <mergeCell ref="KLN11:KMB11"/>
-    <mergeCell ref="KFZ11:KGN11"/>
-    <mergeCell ref="KGP11:KHD11"/>
-    <mergeCell ref="KHF11:KHT11"/>
-    <mergeCell ref="KHV11:KIJ11"/>
-    <mergeCell ref="KIL11:KIZ11"/>
-    <mergeCell ref="KCX11:KDL11"/>
-    <mergeCell ref="KDN11:KEB11"/>
-    <mergeCell ref="KED11:KER11"/>
-    <mergeCell ref="KET11:KFH11"/>
-    <mergeCell ref="KFJ11:KFX11"/>
-    <mergeCell ref="JZV11:KAJ11"/>
-    <mergeCell ref="KAL11:KAZ11"/>
-    <mergeCell ref="KBB11:KBP11"/>
-    <mergeCell ref="KBR11:KCF11"/>
-    <mergeCell ref="KCH11:KCV11"/>
-    <mergeCell ref="JWT11:JXH11"/>
-    <mergeCell ref="JXJ11:JXX11"/>
-    <mergeCell ref="JXZ11:JYN11"/>
-    <mergeCell ref="JYP11:JZD11"/>
-    <mergeCell ref="JZF11:JZT11"/>
-    <mergeCell ref="JTR11:JUF11"/>
-    <mergeCell ref="JUH11:JUV11"/>
-    <mergeCell ref="JUX11:JVL11"/>
-    <mergeCell ref="JVN11:JWB11"/>
-    <mergeCell ref="JWD11:JWR11"/>
-    <mergeCell ref="JQP11:JRD11"/>
-    <mergeCell ref="JRF11:JRT11"/>
-    <mergeCell ref="JRV11:JSJ11"/>
-    <mergeCell ref="JSL11:JSZ11"/>
-    <mergeCell ref="JTB11:JTP11"/>
-    <mergeCell ref="JNN11:JOB11"/>
-    <mergeCell ref="JOD11:JOR11"/>
-    <mergeCell ref="JOT11:JPH11"/>
-    <mergeCell ref="JPJ11:JPX11"/>
-    <mergeCell ref="JPZ11:JQN11"/>
-    <mergeCell ref="JKL11:JKZ11"/>
-    <mergeCell ref="JLB11:JLP11"/>
-    <mergeCell ref="JLR11:JMF11"/>
-    <mergeCell ref="JMH11:JMV11"/>
-    <mergeCell ref="JMX11:JNL11"/>
-    <mergeCell ref="JHJ11:JHX11"/>
-    <mergeCell ref="JHZ11:JIN11"/>
-    <mergeCell ref="JIP11:JJD11"/>
-    <mergeCell ref="JJF11:JJT11"/>
-    <mergeCell ref="JJV11:JKJ11"/>
-    <mergeCell ref="JEH11:JEV11"/>
-    <mergeCell ref="JEX11:JFL11"/>
-    <mergeCell ref="JFN11:JGB11"/>
-    <mergeCell ref="JGD11:JGR11"/>
-    <mergeCell ref="JGT11:JHH11"/>
-    <mergeCell ref="JBF11:JBT11"/>
-    <mergeCell ref="JBV11:JCJ11"/>
-    <mergeCell ref="JCL11:JCZ11"/>
-    <mergeCell ref="JDB11:JDP11"/>
-    <mergeCell ref="JDR11:JEF11"/>
-    <mergeCell ref="IYD11:IYR11"/>
-    <mergeCell ref="IYT11:IZH11"/>
-    <mergeCell ref="IZJ11:IZX11"/>
-    <mergeCell ref="IZZ11:JAN11"/>
-    <mergeCell ref="JAP11:JBD11"/>
-    <mergeCell ref="IVB11:IVP11"/>
-    <mergeCell ref="IVR11:IWF11"/>
-    <mergeCell ref="IWH11:IWV11"/>
-    <mergeCell ref="IWX11:IXL11"/>
-    <mergeCell ref="IXN11:IYB11"/>
-    <mergeCell ref="IRZ11:ISN11"/>
-    <mergeCell ref="ISP11:ITD11"/>
-    <mergeCell ref="ITF11:ITT11"/>
-    <mergeCell ref="ITV11:IUJ11"/>
-    <mergeCell ref="IUL11:IUZ11"/>
-    <mergeCell ref="IOX11:IPL11"/>
-    <mergeCell ref="IPN11:IQB11"/>
-    <mergeCell ref="IQD11:IQR11"/>
-    <mergeCell ref="IQT11:IRH11"/>
-    <mergeCell ref="IRJ11:IRX11"/>
-    <mergeCell ref="ILV11:IMJ11"/>
-    <mergeCell ref="IML11:IMZ11"/>
-    <mergeCell ref="INB11:INP11"/>
-    <mergeCell ref="INR11:IOF11"/>
-    <mergeCell ref="IOH11:IOV11"/>
-    <mergeCell ref="IIT11:IJH11"/>
-    <mergeCell ref="IJJ11:IJX11"/>
-    <mergeCell ref="IJZ11:IKN11"/>
-    <mergeCell ref="IKP11:ILD11"/>
-    <mergeCell ref="ILF11:ILT11"/>
-    <mergeCell ref="IFR11:IGF11"/>
-    <mergeCell ref="IGH11:IGV11"/>
-    <mergeCell ref="IGX11:IHL11"/>
-    <mergeCell ref="IHN11:IIB11"/>
-    <mergeCell ref="IID11:IIR11"/>
-    <mergeCell ref="ICP11:IDD11"/>
-    <mergeCell ref="IDF11:IDT11"/>
-    <mergeCell ref="IDV11:IEJ11"/>
-    <mergeCell ref="IEL11:IEZ11"/>
-    <mergeCell ref="IFB11:IFP11"/>
-    <mergeCell ref="HZN11:IAB11"/>
-    <mergeCell ref="IAD11:IAR11"/>
-    <mergeCell ref="IAT11:IBH11"/>
-    <mergeCell ref="IBJ11:IBX11"/>
-    <mergeCell ref="IBZ11:ICN11"/>
-    <mergeCell ref="HWL11:HWZ11"/>
-    <mergeCell ref="HXB11:HXP11"/>
-    <mergeCell ref="HXR11:HYF11"/>
-    <mergeCell ref="HYH11:HYV11"/>
-    <mergeCell ref="HYX11:HZL11"/>
-    <mergeCell ref="HTJ11:HTX11"/>
-    <mergeCell ref="HTZ11:HUN11"/>
-    <mergeCell ref="HUP11:HVD11"/>
-    <mergeCell ref="HVF11:HVT11"/>
-    <mergeCell ref="HVV11:HWJ11"/>
-    <mergeCell ref="HQH11:HQV11"/>
-    <mergeCell ref="HQX11:HRL11"/>
-    <mergeCell ref="HRN11:HSB11"/>
-    <mergeCell ref="HSD11:HSR11"/>
-    <mergeCell ref="HST11:HTH11"/>
-    <mergeCell ref="HNF11:HNT11"/>
-    <mergeCell ref="HNV11:HOJ11"/>
-    <mergeCell ref="HOL11:HOZ11"/>
-    <mergeCell ref="HPB11:HPP11"/>
-    <mergeCell ref="HPR11:HQF11"/>
-    <mergeCell ref="HKD11:HKR11"/>
-    <mergeCell ref="HKT11:HLH11"/>
-    <mergeCell ref="HLJ11:HLX11"/>
-    <mergeCell ref="HLZ11:HMN11"/>
-    <mergeCell ref="HMP11:HND11"/>
-    <mergeCell ref="HHB11:HHP11"/>
-    <mergeCell ref="HHR11:HIF11"/>
-    <mergeCell ref="HIH11:HIV11"/>
-    <mergeCell ref="HIX11:HJL11"/>
-    <mergeCell ref="HJN11:HKB11"/>
-    <mergeCell ref="HDZ11:HEN11"/>
-    <mergeCell ref="HEP11:HFD11"/>
-    <mergeCell ref="HFF11:HFT11"/>
-    <mergeCell ref="HFV11:HGJ11"/>
-    <mergeCell ref="HGL11:HGZ11"/>
-    <mergeCell ref="HAX11:HBL11"/>
-    <mergeCell ref="HBN11:HCB11"/>
-    <mergeCell ref="HCD11:HCR11"/>
-    <mergeCell ref="HCT11:HDH11"/>
-    <mergeCell ref="HDJ11:HDX11"/>
-    <mergeCell ref="GXV11:GYJ11"/>
-    <mergeCell ref="GYL11:GYZ11"/>
-    <mergeCell ref="GZB11:GZP11"/>
-    <mergeCell ref="GZR11:HAF11"/>
-    <mergeCell ref="HAH11:HAV11"/>
-    <mergeCell ref="GUT11:GVH11"/>
-    <mergeCell ref="GVJ11:GVX11"/>
-    <mergeCell ref="GVZ11:GWN11"/>
-    <mergeCell ref="GWP11:GXD11"/>
-    <mergeCell ref="GXF11:GXT11"/>
-    <mergeCell ref="GRR11:GSF11"/>
-    <mergeCell ref="GSH11:GSV11"/>
-    <mergeCell ref="GSX11:GTL11"/>
-    <mergeCell ref="GTN11:GUB11"/>
-    <mergeCell ref="GUD11:GUR11"/>
-    <mergeCell ref="GOP11:GPD11"/>
-    <mergeCell ref="GPF11:GPT11"/>
-    <mergeCell ref="GPV11:GQJ11"/>
-    <mergeCell ref="GQL11:GQZ11"/>
-    <mergeCell ref="GRB11:GRP11"/>
-    <mergeCell ref="GLN11:GMB11"/>
-    <mergeCell ref="GMD11:GMR11"/>
-    <mergeCell ref="GMT11:GNH11"/>
-    <mergeCell ref="GNJ11:GNX11"/>
-    <mergeCell ref="GNZ11:GON11"/>
-    <mergeCell ref="GIL11:GIZ11"/>
-    <mergeCell ref="GJB11:GJP11"/>
-    <mergeCell ref="GJR11:GKF11"/>
-    <mergeCell ref="GKH11:GKV11"/>
-    <mergeCell ref="GKX11:GLL11"/>
-    <mergeCell ref="GFJ11:GFX11"/>
-    <mergeCell ref="GFZ11:GGN11"/>
-    <mergeCell ref="GGP11:GHD11"/>
-    <mergeCell ref="GHF11:GHT11"/>
-    <mergeCell ref="GHV11:GIJ11"/>
-    <mergeCell ref="GCH11:GCV11"/>
-    <mergeCell ref="GCX11:GDL11"/>
-    <mergeCell ref="GDN11:GEB11"/>
-    <mergeCell ref="GED11:GER11"/>
-    <mergeCell ref="GET11:GFH11"/>
-    <mergeCell ref="FZF11:FZT11"/>
-    <mergeCell ref="FZV11:GAJ11"/>
-    <mergeCell ref="GAL11:GAZ11"/>
-    <mergeCell ref="GBB11:GBP11"/>
-    <mergeCell ref="GBR11:GCF11"/>
-    <mergeCell ref="FWD11:FWR11"/>
-    <mergeCell ref="FWT11:FXH11"/>
-    <mergeCell ref="FXJ11:FXX11"/>
-    <mergeCell ref="FXZ11:FYN11"/>
-    <mergeCell ref="FYP11:FZD11"/>
-    <mergeCell ref="FTB11:FTP11"/>
-    <mergeCell ref="FTR11:FUF11"/>
-    <mergeCell ref="FUH11:FUV11"/>
-    <mergeCell ref="FUX11:FVL11"/>
-    <mergeCell ref="FVN11:FWB11"/>
-    <mergeCell ref="FPZ11:FQN11"/>
-    <mergeCell ref="FQP11:FRD11"/>
-    <mergeCell ref="FRF11:FRT11"/>
-    <mergeCell ref="FRV11:FSJ11"/>
-    <mergeCell ref="FSL11:FSZ11"/>
-    <mergeCell ref="FMX11:FNL11"/>
-    <mergeCell ref="FNN11:FOB11"/>
-    <mergeCell ref="FOD11:FOR11"/>
-    <mergeCell ref="FOT11:FPH11"/>
-    <mergeCell ref="FPJ11:FPX11"/>
-    <mergeCell ref="FJV11:FKJ11"/>
-    <mergeCell ref="FKL11:FKZ11"/>
-    <mergeCell ref="FLB11:FLP11"/>
-    <mergeCell ref="FLR11:FMF11"/>
-    <mergeCell ref="FMH11:FMV11"/>
-    <mergeCell ref="FGT11:FHH11"/>
-    <mergeCell ref="FHJ11:FHX11"/>
-    <mergeCell ref="FHZ11:FIN11"/>
-    <mergeCell ref="FIP11:FJD11"/>
-    <mergeCell ref="FJF11:FJT11"/>
-    <mergeCell ref="FDR11:FEF11"/>
-    <mergeCell ref="FEH11:FEV11"/>
-    <mergeCell ref="FEX11:FFL11"/>
-    <mergeCell ref="FFN11:FGB11"/>
-    <mergeCell ref="FGD11:FGR11"/>
-    <mergeCell ref="FAP11:FBD11"/>
-    <mergeCell ref="FBF11:FBT11"/>
-    <mergeCell ref="FBV11:FCJ11"/>
-    <mergeCell ref="FCL11:FCZ11"/>
-    <mergeCell ref="FDB11:FDP11"/>
-    <mergeCell ref="EXN11:EYB11"/>
-    <mergeCell ref="EYD11:EYR11"/>
-    <mergeCell ref="EYT11:EZH11"/>
-    <mergeCell ref="EZJ11:EZX11"/>
-    <mergeCell ref="EZZ11:FAN11"/>
-    <mergeCell ref="EUL11:EUZ11"/>
-    <mergeCell ref="EVB11:EVP11"/>
-    <mergeCell ref="EVR11:EWF11"/>
-    <mergeCell ref="EWH11:EWV11"/>
-    <mergeCell ref="EWX11:EXL11"/>
-    <mergeCell ref="ERJ11:ERX11"/>
-    <mergeCell ref="ERZ11:ESN11"/>
-    <mergeCell ref="ESP11:ETD11"/>
-    <mergeCell ref="ETF11:ETT11"/>
-    <mergeCell ref="ETV11:EUJ11"/>
-    <mergeCell ref="EOH11:EOV11"/>
-    <mergeCell ref="EOX11:EPL11"/>
-    <mergeCell ref="EPN11:EQB11"/>
-    <mergeCell ref="EQD11:EQR11"/>
-    <mergeCell ref="EQT11:ERH11"/>
-    <mergeCell ref="ELF11:ELT11"/>
-    <mergeCell ref="ELV11:EMJ11"/>
-    <mergeCell ref="EML11:EMZ11"/>
-    <mergeCell ref="ENB11:ENP11"/>
-    <mergeCell ref="ENR11:EOF11"/>
-    <mergeCell ref="EID11:EIR11"/>
-    <mergeCell ref="EIT11:EJH11"/>
-    <mergeCell ref="EJJ11:EJX11"/>
-    <mergeCell ref="EJZ11:EKN11"/>
-    <mergeCell ref="EKP11:ELD11"/>
-    <mergeCell ref="EFB11:EFP11"/>
-    <mergeCell ref="EFR11:EGF11"/>
-    <mergeCell ref="EGH11:EGV11"/>
-    <mergeCell ref="EGX11:EHL11"/>
-    <mergeCell ref="EHN11:EIB11"/>
-    <mergeCell ref="EBZ11:ECN11"/>
-    <mergeCell ref="ECP11:EDD11"/>
-    <mergeCell ref="EDF11:EDT11"/>
-    <mergeCell ref="EDV11:EEJ11"/>
-    <mergeCell ref="EEL11:EEZ11"/>
-    <mergeCell ref="DYX11:DZL11"/>
-    <mergeCell ref="DZN11:EAB11"/>
-    <mergeCell ref="EAD11:EAR11"/>
-    <mergeCell ref="EAT11:EBH11"/>
-    <mergeCell ref="EBJ11:EBX11"/>
-    <mergeCell ref="DVV11:DWJ11"/>
-    <mergeCell ref="DWL11:DWZ11"/>
-    <mergeCell ref="DXB11:DXP11"/>
-    <mergeCell ref="DXR11:DYF11"/>
-    <mergeCell ref="DYH11:DYV11"/>
-    <mergeCell ref="DST11:DTH11"/>
-    <mergeCell ref="DTJ11:DTX11"/>
-    <mergeCell ref="DTZ11:DUN11"/>
-    <mergeCell ref="DUP11:DVD11"/>
-    <mergeCell ref="DVF11:DVT11"/>
-    <mergeCell ref="DPR11:DQF11"/>
-    <mergeCell ref="DQH11:DQV11"/>
-    <mergeCell ref="DQX11:DRL11"/>
-    <mergeCell ref="DRN11:DSB11"/>
-    <mergeCell ref="DSD11:DSR11"/>
-    <mergeCell ref="DMP11:DND11"/>
-    <mergeCell ref="DNF11:DNT11"/>
-    <mergeCell ref="DNV11:DOJ11"/>
-    <mergeCell ref="DOL11:DOZ11"/>
-    <mergeCell ref="DPB11:DPP11"/>
-    <mergeCell ref="DJN11:DKB11"/>
-    <mergeCell ref="DKD11:DKR11"/>
-    <mergeCell ref="DKT11:DLH11"/>
-    <mergeCell ref="DLJ11:DLX11"/>
-    <mergeCell ref="DLZ11:DMN11"/>
-    <mergeCell ref="DGL11:DGZ11"/>
-    <mergeCell ref="DHB11:DHP11"/>
-    <mergeCell ref="DHR11:DIF11"/>
-    <mergeCell ref="DIH11:DIV11"/>
-    <mergeCell ref="DIX11:DJL11"/>
-    <mergeCell ref="DDJ11:DDX11"/>
-    <mergeCell ref="DDZ11:DEN11"/>
-    <mergeCell ref="DEP11:DFD11"/>
-    <mergeCell ref="DFF11:DFT11"/>
-    <mergeCell ref="DFV11:DGJ11"/>
-    <mergeCell ref="DAH11:DAV11"/>
-    <mergeCell ref="DAX11:DBL11"/>
-    <mergeCell ref="DBN11:DCB11"/>
-    <mergeCell ref="DCD11:DCR11"/>
-    <mergeCell ref="DCT11:DDH11"/>
-    <mergeCell ref="CXF11:CXT11"/>
-    <mergeCell ref="CXV11:CYJ11"/>
-    <mergeCell ref="CYL11:CYZ11"/>
-    <mergeCell ref="CZB11:CZP11"/>
-    <mergeCell ref="CZR11:DAF11"/>
-    <mergeCell ref="CUD11:CUR11"/>
-    <mergeCell ref="CUT11:CVH11"/>
-    <mergeCell ref="CVJ11:CVX11"/>
-    <mergeCell ref="CVZ11:CWN11"/>
-    <mergeCell ref="CWP11:CXD11"/>
-    <mergeCell ref="CRB11:CRP11"/>
-    <mergeCell ref="CRR11:CSF11"/>
-    <mergeCell ref="CSH11:CSV11"/>
-    <mergeCell ref="CSX11:CTL11"/>
-    <mergeCell ref="CTN11:CUB11"/>
-    <mergeCell ref="CNZ11:CON11"/>
-    <mergeCell ref="COP11:CPD11"/>
-    <mergeCell ref="CPF11:CPT11"/>
-    <mergeCell ref="CPV11:CQJ11"/>
-    <mergeCell ref="CQL11:CQZ11"/>
-    <mergeCell ref="CKX11:CLL11"/>
-    <mergeCell ref="CLN11:CMB11"/>
-    <mergeCell ref="CMD11:CMR11"/>
-    <mergeCell ref="CMT11:CNH11"/>
-    <mergeCell ref="CNJ11:CNX11"/>
-    <mergeCell ref="CHV11:CIJ11"/>
-    <mergeCell ref="CIL11:CIZ11"/>
-    <mergeCell ref="CJB11:CJP11"/>
-    <mergeCell ref="CJR11:CKF11"/>
-    <mergeCell ref="CKH11:CKV11"/>
-    <mergeCell ref="CET11:CFH11"/>
-    <mergeCell ref="CFJ11:CFX11"/>
-    <mergeCell ref="CFZ11:CGN11"/>
-    <mergeCell ref="CGP11:CHD11"/>
-    <mergeCell ref="CHF11:CHT11"/>
-    <mergeCell ref="CBR11:CCF11"/>
-    <mergeCell ref="CCH11:CCV11"/>
-    <mergeCell ref="CCX11:CDL11"/>
-    <mergeCell ref="CDN11:CEB11"/>
-    <mergeCell ref="CED11:CER11"/>
-    <mergeCell ref="BYP11:BZD11"/>
-    <mergeCell ref="BZF11:BZT11"/>
-    <mergeCell ref="BZV11:CAJ11"/>
-    <mergeCell ref="CAL11:CAZ11"/>
-    <mergeCell ref="CBB11:CBP11"/>
-    <mergeCell ref="BVN11:BWB11"/>
-    <mergeCell ref="BWD11:BWR11"/>
-    <mergeCell ref="BWT11:BXH11"/>
-    <mergeCell ref="BXJ11:BXX11"/>
-    <mergeCell ref="BXZ11:BYN11"/>
-    <mergeCell ref="BSL11:BSZ11"/>
-    <mergeCell ref="BTB11:BTP11"/>
-    <mergeCell ref="BTR11:BUF11"/>
-    <mergeCell ref="BUH11:BUV11"/>
-    <mergeCell ref="BUX11:BVL11"/>
-    <mergeCell ref="BPJ11:BPX11"/>
-    <mergeCell ref="BPZ11:BQN11"/>
-    <mergeCell ref="BQP11:BRD11"/>
-    <mergeCell ref="BRF11:BRT11"/>
-    <mergeCell ref="BRV11:BSJ11"/>
-    <mergeCell ref="BMH11:BMV11"/>
-    <mergeCell ref="BMX11:BNL11"/>
-    <mergeCell ref="BNN11:BOB11"/>
-    <mergeCell ref="BOD11:BOR11"/>
-    <mergeCell ref="BOT11:BPH11"/>
-    <mergeCell ref="BJF11:BJT11"/>
-    <mergeCell ref="BJV11:BKJ11"/>
-    <mergeCell ref="BKL11:BKZ11"/>
-    <mergeCell ref="BLB11:BLP11"/>
-    <mergeCell ref="BLR11:BMF11"/>
-    <mergeCell ref="BGD11:BGR11"/>
-    <mergeCell ref="BGT11:BHH11"/>
-    <mergeCell ref="BHJ11:BHX11"/>
-    <mergeCell ref="BHZ11:BIN11"/>
-    <mergeCell ref="BIP11:BJD11"/>
-    <mergeCell ref="BDB11:BDP11"/>
-    <mergeCell ref="BDR11:BEF11"/>
-    <mergeCell ref="BEH11:BEV11"/>
-    <mergeCell ref="BEX11:BFL11"/>
-    <mergeCell ref="BFN11:BGB11"/>
-    <mergeCell ref="AZZ11:BAN11"/>
-    <mergeCell ref="BAP11:BBD11"/>
-    <mergeCell ref="BBF11:BBT11"/>
-    <mergeCell ref="BBV11:BCJ11"/>
-    <mergeCell ref="BCL11:BCZ11"/>
-    <mergeCell ref="AWX11:AXL11"/>
-    <mergeCell ref="AXN11:AYB11"/>
-    <mergeCell ref="AYD11:AYR11"/>
-    <mergeCell ref="AYT11:AZH11"/>
-    <mergeCell ref="AZJ11:AZX11"/>
-    <mergeCell ref="ATV11:AUJ11"/>
-    <mergeCell ref="AUL11:AUZ11"/>
-    <mergeCell ref="AVB11:AVP11"/>
-    <mergeCell ref="AVR11:AWF11"/>
-    <mergeCell ref="AWH11:AWV11"/>
-    <mergeCell ref="AQT11:ARH11"/>
-    <mergeCell ref="ARJ11:ARX11"/>
-    <mergeCell ref="ARZ11:ASN11"/>
-    <mergeCell ref="ASP11:ATD11"/>
-    <mergeCell ref="ATF11:ATT11"/>
-    <mergeCell ref="ANR11:AOF11"/>
-    <mergeCell ref="AOH11:AOV11"/>
-    <mergeCell ref="AOX11:APL11"/>
-    <mergeCell ref="APN11:AQB11"/>
-    <mergeCell ref="AQD11:AQR11"/>
-    <mergeCell ref="AKP11:ALD11"/>
-    <mergeCell ref="ALF11:ALT11"/>
-    <mergeCell ref="ALV11:AMJ11"/>
-    <mergeCell ref="AML11:AMZ11"/>
-    <mergeCell ref="ANB11:ANP11"/>
-    <mergeCell ref="AHN11:AIB11"/>
-    <mergeCell ref="AID11:AIR11"/>
-    <mergeCell ref="AIT11:AJH11"/>
-    <mergeCell ref="AJJ11:AJX11"/>
-    <mergeCell ref="AJZ11:AKN11"/>
-    <mergeCell ref="AEL11:AEZ11"/>
-    <mergeCell ref="AFB11:AFP11"/>
-    <mergeCell ref="AFR11:AGF11"/>
-    <mergeCell ref="AGH11:AGV11"/>
-    <mergeCell ref="AGX11:AHL11"/>
-    <mergeCell ref="ABJ11:ABX11"/>
-    <mergeCell ref="ABZ11:ACN11"/>
-    <mergeCell ref="ACP11:ADD11"/>
-    <mergeCell ref="ADF11:ADT11"/>
-    <mergeCell ref="ADV11:AEJ11"/>
-    <mergeCell ref="YH11:YV11"/>
-    <mergeCell ref="YX11:ZL11"/>
-    <mergeCell ref="ZN11:AAB11"/>
-    <mergeCell ref="AAD11:AAR11"/>
-    <mergeCell ref="AAT11:ABH11"/>
-    <mergeCell ref="VF11:VT11"/>
-    <mergeCell ref="VV11:WJ11"/>
-    <mergeCell ref="WL11:WZ11"/>
-    <mergeCell ref="XB11:XP11"/>
-    <mergeCell ref="XR11:YF11"/>
-    <mergeCell ref="SD11:SR11"/>
-    <mergeCell ref="ST11:TH11"/>
-    <mergeCell ref="TJ11:TX11"/>
-    <mergeCell ref="TZ11:UN11"/>
-    <mergeCell ref="UP11:VD11"/>
-    <mergeCell ref="PB11:PP11"/>
-    <mergeCell ref="PR11:QF11"/>
-    <mergeCell ref="QH11:QV11"/>
-    <mergeCell ref="QX11:RL11"/>
-    <mergeCell ref="RN11:SB11"/>
-    <mergeCell ref="LZ11:MN11"/>
-    <mergeCell ref="MP11:ND11"/>
-    <mergeCell ref="NF11:NT11"/>
-    <mergeCell ref="NV11:OJ11"/>
-    <mergeCell ref="OL11:OZ11"/>
-    <mergeCell ref="IX11:JL11"/>
-    <mergeCell ref="JN11:KB11"/>
-    <mergeCell ref="KD11:KR11"/>
-    <mergeCell ref="KT11:LH11"/>
-    <mergeCell ref="LJ11:LX11"/>
-    <mergeCell ref="FV11:GJ11"/>
-    <mergeCell ref="GL11:GZ11"/>
-    <mergeCell ref="HB11:HP11"/>
-    <mergeCell ref="HR11:IF11"/>
-    <mergeCell ref="IH11:IV11"/>
-    <mergeCell ref="DZ11:EN11"/>
-    <mergeCell ref="EP11:FD11"/>
-    <mergeCell ref="FF11:FT11"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="B12:P12"/>
-    <mergeCell ref="B11:P11"/>
-    <mergeCell ref="B6:P6"/>
-    <mergeCell ref="A2:P3"/>
-    <mergeCell ref="B19:P19"/>
-    <mergeCell ref="B20:P20"/>
-    <mergeCell ref="B10:P10"/>
-    <mergeCell ref="B13:P13"/>
-    <mergeCell ref="B14:P14"/>
-    <mergeCell ref="B16:P16"/>
-    <mergeCell ref="B17:P17"/>
-    <mergeCell ref="B18:P18"/>
-    <mergeCell ref="B8:P8"/>
-    <mergeCell ref="B9:P9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D24" r:id="rId1"/>
@@ -18454,20 +18449,20 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" customWidth="1"/>
-    <col min="14" max="14" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="13.6640625" customWidth="1"/>
-    <col min="19" max="19" width="41.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13.7109375" customWidth="1"/>
+    <col min="19" max="19" width="41.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -18531,7 +18526,7 @@
         <v>91491</v>
       </c>
       <c r="B2" s="8">
-        <v>2014</v>
+        <v>2066</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
@@ -18584,7 +18579,7 @@
         <v>91491</v>
       </c>
       <c r="B3" s="8">
-        <v>2014</v>
+        <v>2066</v>
       </c>
       <c r="C3" s="8">
         <v>1</v>
@@ -18641,30 +18636,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <AssignedTo xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo xmlns="http://schemas.microsoft.com/sharepoint/v3">
-        <DisplayName xmlns="http://schemas.microsoft.com/sharepoint/v3"/>
-        <AccountId xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-        <AccountType xmlns="http://schemas.microsoft.com/sharepoint/v3"/>
-      </UserInfo>
-    </AssignedTo>
-    <_DCDateCreated xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100203DE2141C24984C8B5BD486AC883F74" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bf69ac6c3c18254e02fea92c1e5feb8d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="http://schemas.microsoft.com/sharepoint/v3/fields" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ff21e74b4823850b05021cfe04c33c80" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -18748,31 +18719,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E204E564-F31A-4545-987F-0234B48DC709}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADB71398-119A-4F88-B202-8C1F42D23C72}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <AssignedTo xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo xmlns="http://schemas.microsoft.com/sharepoint/v3">
+        <DisplayName xmlns="http://schemas.microsoft.com/sharepoint/v3"/>
+        <AccountId xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+        <AccountType xmlns="http://schemas.microsoft.com/sharepoint/v3"/>
+      </UserInfo>
+    </AssignedTo>
+    <_DCDateCreated xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23DB4CBC-71DC-421E-BE66-228888E53171}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18788,4 +18759,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADB71398-119A-4F88-B202-8C1F42D23C72}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E204E564-F31A-4545-987F-0234B48DC709}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>